--- a/tujigiri/Document/2.辻斬リーマン画面仕様.xlsx
+++ b/tujigiri/Document/2.辻斬リーマン画面仕様.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\新しいフォルダー\tujigiri\Document\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\tt\tujigiri\Document\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4A64EC8-ADA7-4F67-B9A3-0DE1F2246CEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D51371C0-7C8B-4C81-BEE5-698092E5372B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="更新履歴" sheetId="2" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="187">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="188">
   <si>
     <t>更新履歴</t>
   </si>
@@ -1517,6 +1517,19 @@
     </rPh>
     <rPh sb="13" eb="15">
       <t>サイショ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>この文字は、3秒おきに点滅するようにしてください</t>
+    <rPh sb="2" eb="4">
+      <t>モジ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ビョウ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>テンメツ</t>
     </rPh>
     <phoneticPr fontId="5"/>
   </si>
@@ -1861,13 +1874,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>52</xdr:row>
+      <xdr:row>54</xdr:row>
       <xdr:rowOff>85725</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>30</xdr:col>
       <xdr:colOff>47625</xdr:colOff>
-      <xdr:row>69</xdr:row>
+      <xdr:row>71</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1936,13 +1949,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>57</xdr:row>
+      <xdr:row>59</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>26</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>59</xdr:row>
+      <xdr:row>61</xdr:row>
       <xdr:rowOff>104775</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2012,13 +2025,13 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>63</xdr:row>
+      <xdr:row>65</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>24</xdr:col>
       <xdr:colOff>104775</xdr:colOff>
-      <xdr:row>64</xdr:row>
+      <xdr:row>66</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2073,13 +2086,13 @@
     <xdr:from>
       <xdr:col>32</xdr:col>
       <xdr:colOff>47625</xdr:colOff>
-      <xdr:row>52</xdr:row>
+      <xdr:row>54</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>59</xdr:col>
       <xdr:colOff>57150</xdr:colOff>
-      <xdr:row>68</xdr:row>
+      <xdr:row>70</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2151,13 +2164,13 @@
     <xdr:from>
       <xdr:col>37</xdr:col>
       <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>57</xdr:row>
+      <xdr:row>59</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>55</xdr:col>
       <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>59</xdr:row>
+      <xdr:row>61</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2227,13 +2240,13 @@
     <xdr:from>
       <xdr:col>39</xdr:col>
       <xdr:colOff>123825</xdr:colOff>
-      <xdr:row>63</xdr:row>
+      <xdr:row>65</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>54</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>64</xdr:row>
+      <xdr:row>66</xdr:row>
       <xdr:rowOff>104775</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2288,13 +2301,13 @@
     <xdr:from>
       <xdr:col>59</xdr:col>
       <xdr:colOff>85725</xdr:colOff>
-      <xdr:row>49</xdr:row>
+      <xdr:row>51</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>62</xdr:col>
       <xdr:colOff>104775</xdr:colOff>
-      <xdr:row>51</xdr:row>
+      <xdr:row>53</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2353,13 +2366,13 @@
     <xdr:from>
       <xdr:col>60</xdr:col>
       <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>55</xdr:row>
+      <xdr:row>57</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>65</xdr:col>
       <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>57</xdr:row>
+      <xdr:row>59</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2485,13 +2498,13 @@
     <xdr:from>
       <xdr:col>127</xdr:col>
       <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>120</xdr:row>
+      <xdr:row>122</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>134</xdr:col>
       <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>122</xdr:row>
+      <xdr:row>124</xdr:row>
       <xdr:rowOff>104775</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2617,13 +2630,13 @@
     <xdr:from>
       <xdr:col>57</xdr:col>
       <xdr:colOff>95250</xdr:colOff>
-      <xdr:row>50</xdr:row>
+      <xdr:row>52</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>59</xdr:col>
       <xdr:colOff>85725</xdr:colOff>
-      <xdr:row>52</xdr:row>
+      <xdr:row>54</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -2684,13 +2697,13 @@
     <xdr:from>
       <xdr:col>55</xdr:col>
       <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>56</xdr:row>
+      <xdr:row>58</xdr:row>
       <xdr:rowOff>128588</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>60</xdr:col>
       <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>58</xdr:row>
+      <xdr:row>60</xdr:row>
       <xdr:rowOff>80963</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -2752,13 +2765,13 @@
     <xdr:from>
       <xdr:col>117</xdr:col>
       <xdr:colOff>57150</xdr:colOff>
-      <xdr:row>120</xdr:row>
+      <xdr:row>122</xdr:row>
       <xdr:rowOff>85725</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>127</xdr:col>
       <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>121</xdr:row>
+      <xdr:row>123</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -2819,13 +2832,13 @@
     <xdr:from>
       <xdr:col>61</xdr:col>
       <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>63</xdr:row>
+      <xdr:row>65</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>68</xdr:col>
       <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>65</xdr:row>
+      <xdr:row>67</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2951,13 +2964,13 @@
     <xdr:from>
       <xdr:col>52</xdr:col>
       <xdr:colOff>53340</xdr:colOff>
-      <xdr:row>63</xdr:row>
+      <xdr:row>65</xdr:row>
       <xdr:rowOff>182880</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>61</xdr:col>
       <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>64</xdr:row>
+      <xdr:row>66</xdr:row>
       <xdr:rowOff>128588</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -4874,8 +4887,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="3444240" y="2133600"/>
-          <a:ext cx="3393757" cy="2095500"/>
+          <a:off x="3448050" y="2133600"/>
+          <a:ext cx="3433762" cy="2095500"/>
           <a:chOff x="3438525" y="2133600"/>
           <a:chExt cx="3333750" cy="2095500"/>
         </a:xfrm>
@@ -5508,8 +5521,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="8048625" y="2133600"/>
-          <a:ext cx="3396615" cy="2095500"/>
+          <a:off x="8105775" y="2133600"/>
+          <a:ext cx="3438525" cy="2095500"/>
           <a:chOff x="3438525" y="2133600"/>
           <a:chExt cx="3333750" cy="2095500"/>
         </a:xfrm>
@@ -7224,8 +7237,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="3444240" y="2133600"/>
-          <a:ext cx="3393757" cy="2095500"/>
+          <a:off x="3448050" y="2133600"/>
+          <a:ext cx="3433762" cy="2095500"/>
           <a:chOff x="3438525" y="2133600"/>
           <a:chExt cx="3333750" cy="2095500"/>
         </a:xfrm>
@@ -7858,8 +7871,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="8048625" y="2133600"/>
-          <a:ext cx="3396615" cy="2095500"/>
+          <a:off x="8105775" y="2133600"/>
+          <a:ext cx="3438525" cy="2095500"/>
           <a:chOff x="3438525" y="2133600"/>
           <a:chExt cx="3333750" cy="2095500"/>
         </a:xfrm>
@@ -10032,33 +10045,33 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53B3EAD6-5458-4246-8577-21AA0B42557E}">
   <dimension ref="B1:E15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView topLeftCell="B4" workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="17.649999999999999" x14ac:dyDescent="0.7"/>
   <cols>
-    <col min="2" max="2" width="14.09765625" customWidth="1"/>
-    <col min="3" max="3" width="12.09765625" customWidth="1"/>
-    <col min="4" max="4" width="18.8984375" customWidth="1"/>
-    <col min="5" max="5" width="13.59765625" customWidth="1"/>
+    <col min="2" max="2" width="14.125" customWidth="1"/>
+    <col min="3" max="3" width="12.125" customWidth="1"/>
+    <col min="4" max="4" width="18.875" customWidth="1"/>
+    <col min="5" max="5" width="13.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:5" s="1" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="2:5" s="1" customFormat="1" x14ac:dyDescent="0.7">
       <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="2:5" x14ac:dyDescent="0.45">
+    <row r="2" spans="2:5" x14ac:dyDescent="0.7">
       <c r="B2" s="13"/>
       <c r="C2" s="13"/>
       <c r="D2" s="13"/>
       <c r="E2" s="13"/>
     </row>
-    <row r="3" spans="2:5" x14ac:dyDescent="0.45">
+    <row r="3" spans="2:5" x14ac:dyDescent="0.7">
       <c r="B3" s="14"/>
     </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.45">
+    <row r="5" spans="2:5" x14ac:dyDescent="0.7">
       <c r="B5" s="2" t="s">
         <v>1</v>
       </c>
@@ -10072,7 +10085,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.45">
+    <row r="6" spans="2:5" x14ac:dyDescent="0.7">
       <c r="B6" s="15">
         <v>45946</v>
       </c>
@@ -10086,7 +10099,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.45">
+    <row r="7" spans="2:5" x14ac:dyDescent="0.7">
       <c r="B7" s="15">
         <v>45965</v>
       </c>
@@ -10100,7 +10113,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.45">
+    <row r="8" spans="2:5" x14ac:dyDescent="0.7">
       <c r="B8" s="15">
         <v>45965</v>
       </c>
@@ -10114,7 +10127,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="2:5" x14ac:dyDescent="0.45">
+    <row r="9" spans="2:5" x14ac:dyDescent="0.7">
       <c r="B9" s="38">
         <v>45967</v>
       </c>
@@ -10128,7 +10141,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="10" spans="2:5" x14ac:dyDescent="0.45">
+    <row r="10" spans="2:5" x14ac:dyDescent="0.7">
       <c r="B10" s="40">
         <v>45974</v>
       </c>
@@ -10142,7 +10155,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="11" spans="2:5" x14ac:dyDescent="0.45">
+    <row r="11" spans="2:5" x14ac:dyDescent="0.7">
       <c r="B11" s="40">
         <v>45974</v>
       </c>
@@ -10156,7 +10169,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="12" spans="2:5" x14ac:dyDescent="0.45">
+    <row r="12" spans="2:5" x14ac:dyDescent="0.7">
       <c r="B12" s="40">
         <v>45974</v>
       </c>
@@ -10170,7 +10183,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="13" spans="2:5" x14ac:dyDescent="0.45">
+    <row r="13" spans="2:5" x14ac:dyDescent="0.7">
       <c r="B13" s="15">
         <v>45946</v>
       </c>
@@ -10184,7 +10197,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="14" spans="2:5" x14ac:dyDescent="0.45">
+    <row r="14" spans="2:5" x14ac:dyDescent="0.7">
       <c r="B14" s="15">
         <v>45965</v>
       </c>
@@ -10198,7 +10211,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="15" spans="2:5" x14ac:dyDescent="0.45">
+    <row r="15" spans="2:5" x14ac:dyDescent="0.7">
       <c r="B15" s="15">
         <v>45965</v>
       </c>
@@ -10220,17 +10233,19 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AF74"/>
+  <dimension ref="A1:AF76"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="B33" sqref="B33"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.09765625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="2.125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.7"/>
   <cols>
-    <col min="1" max="1" width="8.59765625" customWidth="1"/>
-    <col min="2" max="2" width="10.09765625" style="6" customWidth="1"/>
+    <col min="1" max="1" width="12.625" customWidth="1"/>
+    <col min="2" max="2" width="10.125" style="6" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="1" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:7" s="1" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.85">
       <c r="A1" s="4" t="s">
         <v>8</v>
       </c>
@@ -10241,188 +10256,204 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:7" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:7" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B3" s="8"/>
       <c r="D3" s="7" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="E5" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:7" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:7" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B7" s="8"/>
       <c r="D7" s="7" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="E9" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="F11" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="F12" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="F13" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="F14" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="G15" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="17" spans="2:32" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:32" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B17" s="10"/>
       <c r="C17"/>
       <c r="E17" s="9" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="19" spans="2:32" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="F19" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="20" spans="2:32" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="G20" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="21" spans="2:32" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:32" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B21" s="10"/>
       <c r="C21"/>
       <c r="E21" s="9" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="23" spans="2:32" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="F23" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="2:32" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="G25" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="2:32" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="G26" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="2:32" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="G27" t="s">
         <v>26</v>
       </c>
       <c r="AF27" s="11"/>
     </row>
-    <row r="29" spans="2:32" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B29" s="10"/>
-      <c r="C29"/>
-      <c r="E29" s="9" t="s">
+    <row r="28" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="AF28" s="11"/>
+    </row>
+    <row r="29" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="A29" s="14">
+        <v>45975</v>
+      </c>
+      <c r="B29" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="G29" t="s">
+        <v>187</v>
+      </c>
+      <c r="AF29" s="11"/>
+    </row>
+    <row r="31" spans="1:32" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="B31" s="10"/>
+      <c r="C31"/>
+      <c r="E31" s="9" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="31" spans="2:32" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="F31" t="s">
+    <row r="33" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="F33" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="33" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="F33" t="s">
+    <row r="35" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="F35" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="34" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="G34" t="s">
+    <row r="36" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="G36" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="36" spans="2:8" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B36" s="10"/>
-      <c r="C36"/>
-      <c r="E36" s="9" t="s">
+    <row r="38" spans="2:8" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="B38" s="10"/>
+      <c r="C38"/>
+      <c r="E38" s="9" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="38" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="F38" t="s">
+    <row r="40" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="F40" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="40" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="G40" t="s">
+    <row r="42" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="G42" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="41" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="H41" t="s">
+    <row r="43" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="H43" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="43" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="F43" t="s">
+    <row r="45" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="F45" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="45" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="G45" t="s">
+    <row r="47" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="G47" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="47" spans="2:8" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B47" s="8"/>
-      <c r="D47" s="7" t="s">
+    <row r="49" spans="2:5" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="B49" s="8"/>
+      <c r="D49" s="7" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="49" spans="5:5" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="E49" t="s">
+    <row r="51" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="E51" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="50" spans="5:5" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="E50" t="s">
+    <row r="52" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="E52" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="51" spans="5:5" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="E51" t="s">
+    <row r="53" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="E53" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="72" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="D72" t="s">
+    <row r="74" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="D74" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="74" spans="2:4" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B74" s="12"/>
-      <c r="D74" s="3" t="s">
+    <row r="76" spans="2:4" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="B76" s="12"/>
+      <c r="D76" s="3" t="s">
         <v>40</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="5"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -10432,13 +10463,13 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.19921875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="2.1875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.7"/>
   <cols>
     <col min="1" max="1" width="11.5" customWidth="1"/>
-    <col min="2" max="2" width="15.09765625" style="6" customWidth="1"/>
+    <col min="2" max="2" width="15.125" style="6" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="1" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:6" s="1" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.85">
       <c r="A1" s="4" t="s">
         <v>101</v>
       </c>
@@ -10449,72 +10480,72 @@
         <v>41</v>
       </c>
     </row>
-    <row r="3" spans="1:6" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:6" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B3" s="8"/>
       <c r="D3" s="7" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="E5" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="7" spans="1:6" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:6" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B7" s="8"/>
       <c r="D7" s="7" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="E9" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="F11" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="F12" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="F13" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="F14" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="F15" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="F16" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="17" spans="2:4" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="17" spans="2:4" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B17" s="8"/>
       <c r="D17" s="7" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="33" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B33" s="10"/>
       <c r="C33"/>
       <c r="E33" s="9" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="35" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A35" s="14">
         <v>45974</v>
       </c>
@@ -10525,12 +10556,12 @@
         <v>151</v>
       </c>
     </row>
-    <row r="36" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="F36" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="38" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A38" s="47">
         <v>45974</v>
       </c>
@@ -10541,7 +10572,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="39" spans="1:14" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:14" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B39" s="20"/>
       <c r="E39"/>
       <c r="F39" t="s">
@@ -10549,7 +10580,7 @@
       </c>
       <c r="G39"/>
     </row>
-    <row r="40" spans="1:14" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:14" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B40" s="20"/>
       <c r="E40"/>
       <c r="F40" t="s">
@@ -10557,7 +10588,7 @@
       </c>
       <c r="G40"/>
     </row>
-    <row r="41" spans="1:14" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:14" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B41" s="20"/>
       <c r="E41"/>
       <c r="F41"/>
@@ -10565,24 +10596,24 @@
         <v>60</v>
       </c>
     </row>
-    <row r="42" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B42" s="10"/>
       <c r="C42"/>
       <c r="E42" s="9" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="44" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="F44" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="45" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="H45" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="46" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="G46" t="s">
         <v>53</v>
       </c>
@@ -10593,12 +10624,12 @@
         <v>58</v>
       </c>
     </row>
-    <row r="47" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="G47" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="48" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="G48" t="s">
         <v>56</v>
       </c>
@@ -10606,19 +10637,19 @@
         <v>57</v>
       </c>
     </row>
-    <row r="50" spans="1:18" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:18" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B50" s="17"/>
       <c r="C50" s="19"/>
       <c r="F50" s="18" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="52" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="G52" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="53" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="H53" t="s">
         <v>62</v>
       </c>
@@ -10626,7 +10657,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="55" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A55" s="47">
         <v>45974</v>
       </c>
@@ -10637,12 +10668,12 @@
         <v>63</v>
       </c>
     </row>
-    <row r="56" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="H56" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="58" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A58" s="47">
         <v>45974</v>
       </c>
@@ -10653,7 +10684,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="59" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="G59" t="s">
         <v>66</v>
       </c>
@@ -10661,24 +10692,24 @@
         <v>67</v>
       </c>
     </row>
-    <row r="63" spans="1:18" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="63" spans="1:18" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B63" s="10"/>
       <c r="C63" s="19"/>
       <c r="E63" s="9" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="65" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="65" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="F65" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="67" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="67" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="F67" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="68" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="68" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A68" s="14">
         <v>45967</v>
       </c>
@@ -10689,12 +10720,12 @@
         <v>112</v>
       </c>
     </row>
-    <row r="69" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="69" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="G69" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="70" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="70" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A70" s="14">
         <v>45974</v>
       </c>
@@ -10705,66 +10736,66 @@
         <v>139</v>
       </c>
     </row>
-    <row r="71" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="71" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="G71" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="72" spans="1:8" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="72" spans="1:8" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B72" s="10"/>
       <c r="C72" s="19"/>
       <c r="E72" s="9" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="74" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="74" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="F74" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="76" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="76" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="F76" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="78" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="78" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="G78" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="79" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="79" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="G79" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="80" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="80" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="H80" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="83" spans="1:7" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="83" spans="1:7" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B83" s="10"/>
       <c r="C83"/>
       <c r="E83" s="9" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="85" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="85" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="F85" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="86" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="86" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="F86" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="87" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="87" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="F87" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="89" spans="1:7" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="89" spans="1:7" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A89" s="37">
         <v>45974</v>
       </c>
@@ -10776,22 +10807,22 @@
         <v>146</v>
       </c>
     </row>
-    <row r="91" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="91" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="F91" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="93" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="93" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="G93" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="98" spans="2:55" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="98" spans="2:55" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="AD98" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="107" spans="2:55" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="107" spans="2:55" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="AL107" t="s">
         <v>154</v>
       </c>
@@ -10799,81 +10830,81 @@
         <v>155</v>
       </c>
     </row>
-    <row r="108" spans="2:55" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="108" spans="2:55" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="AL108" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="109" spans="2:55" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="109" spans="2:55" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="AL109" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="111" spans="2:55" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="111" spans="2:55" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B111" s="10"/>
       <c r="C111"/>
       <c r="E111" s="9" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="113" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="113" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="F113" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="115" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="115" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="F115" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="116" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="116" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="G116" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="117" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="117" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="G117" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="118" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="118" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="G118" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="120" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="120" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="F120" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="122" spans="2:8" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="122" spans="2:8" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B122" s="17"/>
       <c r="C122" s="19"/>
       <c r="F122" s="21" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="124" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="124" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="G124" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="126" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="126" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="G126" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="128" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="128" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="H128" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="129" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="129" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="H129" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="131" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="131" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A131" s="14">
         <v>45967</v>
       </c>
@@ -10884,28 +10915,28 @@
         <v>124</v>
       </c>
     </row>
-    <row r="132" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="132" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A132" s="14"/>
     </row>
-    <row r="133" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="133" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A133" s="14"/>
     </row>
-    <row r="134" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="134" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A134" s="14"/>
     </row>
-    <row r="136" spans="1:8" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="136" spans="1:8" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B136" s="17"/>
       <c r="C136" s="19"/>
       <c r="F136" s="18" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="138" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="138" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="G138" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="139" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="139" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A139" s="14">
         <v>45967</v>
       </c>
@@ -10916,65 +10947,65 @@
         <v>127</v>
       </c>
     </row>
-    <row r="140" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="140" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="H140" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="142" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="142" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="G142" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="144" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="144" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="H144" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="146" spans="2:8" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="146" spans="2:8" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B146" s="17"/>
       <c r="C146" s="19"/>
       <c r="F146" s="18" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="148" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="148" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="G148" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="150" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="150" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="G150" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="152" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="152" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="H152" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="154" spans="2:8" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="154" spans="2:8" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B154" s="12"/>
       <c r="D154" s="22" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="155" spans="2:8" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="155" spans="2:8" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B155" s="20"/>
     </row>
-    <row r="156" spans="2:8" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="156" spans="2:8" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B156" s="20"/>
     </row>
-    <row r="157" spans="2:8" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="157" spans="2:8" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B157" s="20"/>
     </row>
-    <row r="158" spans="2:8" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="158" spans="2:8" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B158" s="20"/>
     </row>
-    <row r="159" spans="2:8" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="159" spans="2:8" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B159" s="20"/>
     </row>
-    <row r="160" spans="2:8" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="160" spans="2:8" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B160" s="20"/>
     </row>
   </sheetData>
@@ -10991,14 +11022,14 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.09765625" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="2.125" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.7"/>
   <cols>
     <col min="1" max="1" width="21" style="23" customWidth="1"/>
     <col min="2" max="2" width="20" style="28" customWidth="1"/>
-    <col min="3" max="16384" width="2.09765625" style="23"/>
+    <col min="3" max="16384" width="2.125" style="23"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="24" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:5" s="24" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A1" s="26" t="s">
         <v>98</v>
       </c>
@@ -11009,181 +11040,181 @@
         <v>100</v>
       </c>
     </row>
-    <row r="3" spans="1:5" s="29" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:5" s="29" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B3" s="30"/>
       <c r="D3" s="29" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.7">
       <c r="E5" s="23" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="7" spans="1:5" s="29" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:5" s="29" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B7" s="30"/>
       <c r="D7" s="29" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.7">
       <c r="E9" s="23" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="12" spans="1:5" s="29" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:5" s="29" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B12" s="30"/>
       <c r="D12" s="29" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="30" spans="5:6" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="30" spans="5:6" ht="12" customHeight="1" x14ac:dyDescent="0.7">
       <c r="E30" s="23" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="32" spans="5:6" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="32" spans="5:6" ht="12" customHeight="1" x14ac:dyDescent="0.7">
       <c r="F32" s="23" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="33" spans="2:27" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="33" spans="2:27" ht="12" customHeight="1" x14ac:dyDescent="0.7">
       <c r="G33" s="23" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="34" spans="2:27" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="34" spans="2:27" ht="12" customHeight="1" x14ac:dyDescent="0.7">
       <c r="F34" s="23" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="35" spans="2:27" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="35" spans="2:27" ht="12" customHeight="1" x14ac:dyDescent="0.7">
       <c r="F35" s="23" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="36" spans="2:27" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="36" spans="2:27" ht="12" customHeight="1" x14ac:dyDescent="0.7">
       <c r="F36" s="23" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="38" spans="2:27" s="33" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="38" spans="2:27" s="33" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B38" s="34"/>
     </row>
-    <row r="39" spans="2:27" s="32" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="39" spans="2:27" s="32" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B39" s="31"/>
       <c r="C39" s="33"/>
       <c r="E39" s="32" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="41" spans="2:27" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="41" spans="2:27" ht="12" customHeight="1" x14ac:dyDescent="0.7">
       <c r="F41" s="23" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="43" spans="2:27" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="43" spans="2:27" ht="12" customHeight="1" x14ac:dyDescent="0.7">
       <c r="F43" s="23" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="45" spans="2:27" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="45" spans="2:27" ht="12" customHeight="1" x14ac:dyDescent="0.7">
       <c r="G45" s="23" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="46" spans="2:27" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="46" spans="2:27" ht="12" customHeight="1" x14ac:dyDescent="0.7">
       <c r="AA46" s="35"/>
     </row>
-    <row r="47" spans="2:27" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="47" spans="2:27" ht="12" customHeight="1" x14ac:dyDescent="0.7">
       <c r="AA47" s="35"/>
     </row>
-    <row r="48" spans="2:27" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="48" spans="2:27" ht="12" customHeight="1" x14ac:dyDescent="0.7">
       <c r="AA48" s="35"/>
     </row>
-    <row r="49" spans="23:29" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="49" spans="23:29" ht="12" customHeight="1" x14ac:dyDescent="0.7">
       <c r="W49" s="23" t="s">
         <v>173</v>
       </c>
       <c r="AA49" s="35"/>
     </row>
-    <row r="50" spans="23:29" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="50" spans="23:29" ht="12" customHeight="1" x14ac:dyDescent="0.7">
       <c r="AA50" s="35"/>
     </row>
-    <row r="51" spans="23:29" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="51" spans="23:29" ht="12" customHeight="1" x14ac:dyDescent="0.7">
       <c r="AA51" s="35"/>
     </row>
-    <row r="52" spans="23:29" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="52" spans="23:29" ht="12" customHeight="1" x14ac:dyDescent="0.7">
       <c r="AA52" s="35"/>
       <c r="AB52" s="23" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="53" spans="23:29" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="53" spans="23:29" ht="12" customHeight="1" x14ac:dyDescent="0.7">
       <c r="AA53" s="35"/>
       <c r="AC53" s="23" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="54" spans="23:29" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="54" spans="23:29" ht="12" customHeight="1" x14ac:dyDescent="0.7">
       <c r="AA54" s="35"/>
     </row>
-    <row r="55" spans="23:29" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="55" spans="23:29" ht="12" customHeight="1" x14ac:dyDescent="0.7">
       <c r="AA55" s="35"/>
     </row>
-    <row r="56" spans="23:29" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="56" spans="23:29" ht="12" customHeight="1" x14ac:dyDescent="0.7">
       <c r="AA56" s="35"/>
     </row>
-    <row r="57" spans="23:29" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="57" spans="23:29" ht="12" customHeight="1" x14ac:dyDescent="0.7">
       <c r="AA57" s="35"/>
     </row>
-    <row r="58" spans="23:29" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="58" spans="23:29" ht="12" customHeight="1" x14ac:dyDescent="0.7">
       <c r="AA58" s="35"/>
     </row>
-    <row r="59" spans="23:29" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="59" spans="23:29" ht="12" customHeight="1" x14ac:dyDescent="0.7">
       <c r="AA59" s="35"/>
     </row>
-    <row r="60" spans="23:29" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="60" spans="23:29" ht="12" customHeight="1" x14ac:dyDescent="0.7">
       <c r="AA60" s="35"/>
     </row>
-    <row r="61" spans="23:29" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="61" spans="23:29" ht="12" customHeight="1" x14ac:dyDescent="0.7">
       <c r="AA61" s="35"/>
     </row>
-    <row r="62" spans="23:29" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="62" spans="23:29" ht="12" customHeight="1" x14ac:dyDescent="0.7">
       <c r="AA62" s="35"/>
     </row>
-    <row r="63" spans="23:29" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="63" spans="23:29" ht="12" customHeight="1" x14ac:dyDescent="0.7">
       <c r="AA63" s="35"/>
     </row>
-    <row r="64" spans="23:29" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="64" spans="23:29" ht="12" customHeight="1" x14ac:dyDescent="0.7">
       <c r="AA64" s="35"/>
     </row>
-    <row r="65" spans="1:15" s="33" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="65" spans="1:15" s="33" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B65" s="34"/>
     </row>
-    <row r="67" spans="1:15" s="32" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="67" spans="1:15" s="32" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B67" s="31"/>
       <c r="C67" s="33"/>
       <c r="E67" s="32" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="69" spans="1:15" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="69" spans="1:15" ht="12" customHeight="1" x14ac:dyDescent="0.7">
       <c r="F69" s="23" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="71" spans="1:15" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="71" spans="1:15" ht="12" customHeight="1" x14ac:dyDescent="0.7">
       <c r="G71" s="23" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="72" spans="1:15" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="72" spans="1:15" ht="12" customHeight="1" x14ac:dyDescent="0.7">
       <c r="G72" s="23" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="74" spans="1:15" s="33" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="74" spans="1:15" s="33" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A74" s="47">
         <v>45974</v>
       </c>
@@ -11194,40 +11225,40 @@
         <v>140</v>
       </c>
     </row>
-    <row r="76" spans="1:15" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="76" spans="1:15" ht="12" customHeight="1" x14ac:dyDescent="0.7">
       <c r="O76" s="23" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="77" spans="1:15" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="77" spans="1:15" ht="12" customHeight="1" x14ac:dyDescent="0.7">
       <c r="O77" s="23" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="84" spans="1:11" s="33" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="84" spans="1:11" s="33" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B84" s="34"/>
       <c r="E84" s="33" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="85" spans="1:11" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="85" spans="1:11" ht="12" customHeight="1" x14ac:dyDescent="0.7">
       <c r="F85" s="23" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="88" spans="1:11" s="32" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="88" spans="1:11" s="32" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B88" s="31"/>
       <c r="C88" s="33"/>
       <c r="E88" s="32" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="90" spans="1:11" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="90" spans="1:11" ht="12" customHeight="1" x14ac:dyDescent="0.7">
       <c r="E90" s="23" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="92" spans="1:11" s="32" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="92" spans="1:11" s="32" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A92" s="46">
         <v>45974</v>
       </c>
@@ -11239,12 +11270,12 @@
         <v>159</v>
       </c>
     </row>
-    <row r="94" spans="1:11" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="94" spans="1:11" ht="12" customHeight="1" x14ac:dyDescent="0.7">
       <c r="E94" s="23" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="96" spans="1:11" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="96" spans="1:11" ht="12" customHeight="1" x14ac:dyDescent="0.7">
       <c r="E96" s="23" t="s">
         <v>161</v>
       </c>
@@ -11255,7 +11286,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="98" spans="2:11" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="98" spans="2:11" ht="12" customHeight="1" x14ac:dyDescent="0.7">
       <c r="E98" s="23" t="s">
         <v>163</v>
       </c>
@@ -11266,7 +11297,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="100" spans="2:11" s="24" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="100" spans="2:11" s="24" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B100" s="43"/>
       <c r="E100" s="44" t="s">
         <v>97</v>
@@ -11287,14 +11318,14 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.09765625" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="2.125" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.7"/>
   <cols>
     <col min="1" max="1" width="21" style="23" customWidth="1"/>
     <col min="2" max="2" width="20" style="28" customWidth="1"/>
-    <col min="3" max="16384" width="2.09765625" style="23"/>
+    <col min="3" max="16384" width="2.125" style="23"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="24" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:5" s="24" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A1" s="26" t="s">
         <v>98</v>
       </c>
@@ -11305,186 +11336,186 @@
         <v>170</v>
       </c>
     </row>
-    <row r="3" spans="1:5" s="29" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:5" s="29" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B3" s="30"/>
       <c r="D3" s="29" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.7">
       <c r="E5" s="23" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="7" spans="1:5" s="29" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:5" s="29" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B7" s="30"/>
       <c r="D7" s="29" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.7">
       <c r="E9" s="23" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="12" spans="1:5" s="29" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:5" s="29" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B12" s="30"/>
       <c r="D12" s="29" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="30" spans="5:6" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="30" spans="5:6" ht="12" customHeight="1" x14ac:dyDescent="0.7">
       <c r="E30" s="23" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="32" spans="5:6" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="32" spans="5:6" ht="12" customHeight="1" x14ac:dyDescent="0.7">
       <c r="F32" s="23" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="33" spans="2:27" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="33" spans="2:27" ht="12" customHeight="1" x14ac:dyDescent="0.7">
       <c r="G33" s="23" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="34" spans="2:27" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="34" spans="2:27" ht="12" customHeight="1" x14ac:dyDescent="0.7">
       <c r="F34" s="23" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="35" spans="2:27" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="35" spans="2:27" ht="12" customHeight="1" x14ac:dyDescent="0.7">
       <c r="F35" s="23" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="36" spans="2:27" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="36" spans="2:27" ht="12" customHeight="1" x14ac:dyDescent="0.7">
       <c r="F36" s="23" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="38" spans="2:27" s="33" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="38" spans="2:27" s="33" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B38" s="34"/>
     </row>
-    <row r="39" spans="2:27" s="32" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="39" spans="2:27" s="32" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B39" s="31"/>
       <c r="C39" s="33"/>
       <c r="E39" s="32" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="41" spans="2:27" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="41" spans="2:27" ht="12" customHeight="1" x14ac:dyDescent="0.7">
       <c r="F41" s="23" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="43" spans="2:27" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="43" spans="2:27" ht="12" customHeight="1" x14ac:dyDescent="0.7">
       <c r="F43" s="23" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="45" spans="2:27" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="45" spans="2:27" ht="12" customHeight="1" x14ac:dyDescent="0.7">
       <c r="G45" s="23" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="46" spans="2:27" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="46" spans="2:27" ht="12" customHeight="1" x14ac:dyDescent="0.7">
       <c r="AA46" s="35"/>
     </row>
-    <row r="47" spans="2:27" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="47" spans="2:27" ht="12" customHeight="1" x14ac:dyDescent="0.7">
       <c r="AA47" s="35"/>
     </row>
-    <row r="48" spans="2:27" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="48" spans="2:27" ht="12" customHeight="1" x14ac:dyDescent="0.7">
       <c r="AA48" s="35"/>
     </row>
-    <row r="49" spans="24:29" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="49" spans="24:29" ht="12" customHeight="1" x14ac:dyDescent="0.7">
       <c r="X49" s="23" t="s">
         <v>176</v>
       </c>
       <c r="AA49" s="35"/>
     </row>
-    <row r="50" spans="24:29" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="50" spans="24:29" ht="12" customHeight="1" x14ac:dyDescent="0.7">
       <c r="AA50" s="35"/>
     </row>
-    <row r="51" spans="24:29" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="51" spans="24:29" ht="12" customHeight="1" x14ac:dyDescent="0.7">
       <c r="AA51" s="35"/>
     </row>
-    <row r="52" spans="24:29" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="52" spans="24:29" ht="12" customHeight="1" x14ac:dyDescent="0.7">
       <c r="AA52" s="35"/>
       <c r="AB52" s="23" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="53" spans="24:29" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="53" spans="24:29" ht="12" customHeight="1" x14ac:dyDescent="0.7">
       <c r="AA53" s="35"/>
       <c r="AC53" s="23" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="54" spans="24:29" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="54" spans="24:29" ht="12" customHeight="1" x14ac:dyDescent="0.7">
       <c r="AA54" s="35"/>
     </row>
-    <row r="55" spans="24:29" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="55" spans="24:29" ht="12" customHeight="1" x14ac:dyDescent="0.7">
       <c r="AA55" s="35"/>
     </row>
-    <row r="56" spans="24:29" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="56" spans="24:29" ht="12" customHeight="1" x14ac:dyDescent="0.7">
       <c r="AA56" s="35"/>
     </row>
-    <row r="57" spans="24:29" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="57" spans="24:29" ht="12" customHeight="1" x14ac:dyDescent="0.7">
       <c r="AA57" s="35"/>
     </row>
-    <row r="58" spans="24:29" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="58" spans="24:29" ht="12" customHeight="1" x14ac:dyDescent="0.7">
       <c r="AA58" s="35"/>
     </row>
-    <row r="59" spans="24:29" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="59" spans="24:29" ht="12" customHeight="1" x14ac:dyDescent="0.7">
       <c r="AA59" s="35"/>
     </row>
-    <row r="60" spans="24:29" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="60" spans="24:29" ht="12" customHeight="1" x14ac:dyDescent="0.7">
       <c r="AA60" s="35"/>
     </row>
-    <row r="61" spans="24:29" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="61" spans="24:29" ht="12" customHeight="1" x14ac:dyDescent="0.7">
       <c r="AA61" s="35"/>
     </row>
-    <row r="62" spans="24:29" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="62" spans="24:29" ht="12" customHeight="1" x14ac:dyDescent="0.7">
       <c r="AA62" s="35"/>
     </row>
-    <row r="63" spans="24:29" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="63" spans="24:29" ht="12" customHeight="1" x14ac:dyDescent="0.7">
       <c r="AA63" s="35"/>
     </row>
-    <row r="64" spans="24:29" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="64" spans="24:29" ht="12" customHeight="1" x14ac:dyDescent="0.7">
       <c r="AA64" s="35"/>
     </row>
-    <row r="65" spans="1:30" s="33" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="65" spans="1:30" s="33" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B65" s="34"/>
     </row>
-    <row r="67" spans="1:30" s="32" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="67" spans="1:30" s="32" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B67" s="31"/>
       <c r="C67" s="33"/>
       <c r="E67" s="32" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="69" spans="1:30" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="69" spans="1:30" ht="12" customHeight="1" x14ac:dyDescent="0.7">
       <c r="F69" s="23" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="71" spans="1:30" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="71" spans="1:30" ht="12" customHeight="1" x14ac:dyDescent="0.7">
       <c r="G71" s="23" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="72" spans="1:30" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="72" spans="1:30" ht="12" customHeight="1" x14ac:dyDescent="0.7">
       <c r="G72" s="23" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="73" spans="1:30" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="73" spans="1:30" ht="12" customHeight="1" x14ac:dyDescent="0.7">
       <c r="AD73" s="23" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="74" spans="1:30" s="33" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="74" spans="1:30" s="33" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A74" s="47">
         <v>45974</v>
       </c>
@@ -11495,17 +11526,17 @@
         <v>140</v>
       </c>
     </row>
-    <row r="76" spans="1:30" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="76" spans="1:30" ht="12" customHeight="1" x14ac:dyDescent="0.7">
       <c r="O76" s="23" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="77" spans="1:30" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="77" spans="1:30" ht="12" customHeight="1" x14ac:dyDescent="0.7">
       <c r="O77" s="23" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="84" spans="1:6" s="33" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="84" spans="1:6" s="33" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A84" s="47">
         <v>45974</v>
       </c>
@@ -11516,36 +11547,36 @@
         <v>142</v>
       </c>
     </row>
-    <row r="85" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="85" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.7">
       <c r="F85" s="23" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="91" spans="1:6" s="32" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="91" spans="1:6" s="32" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B91" s="31"/>
       <c r="C91" s="33"/>
       <c r="E91" s="32" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="93" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="93" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.7">
       <c r="E93" s="23" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="95" spans="1:6" s="32" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="95" spans="1:6" s="32" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B95" s="31"/>
       <c r="C95" s="33"/>
       <c r="E95" s="32" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="97" spans="2:11" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="97" spans="2:11" ht="12" customHeight="1" x14ac:dyDescent="0.7">
       <c r="E97" s="23" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="99" spans="2:11" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="99" spans="2:11" ht="12" customHeight="1" x14ac:dyDescent="0.7">
       <c r="E99" s="23" t="s">
         <v>161</v>
       </c>
@@ -11556,7 +11587,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="101" spans="2:11" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="101" spans="2:11" ht="12" customHeight="1" x14ac:dyDescent="0.7">
       <c r="E101" s="23" t="s">
         <v>162</v>
       </c>
@@ -11567,7 +11598,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="103" spans="2:11" s="24" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="103" spans="2:11" s="24" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B103" s="43"/>
       <c r="E103" s="44" t="s">
         <v>97</v>

--- a/tujigiri/Document/2.辻斬リーマン画面仕様.xlsx
+++ b/tujigiri/Document/2.辻斬リーマン画面仕様.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\tt\tujigiri\Document\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\新しいフォルダー\tujigiri\Document\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D51371C0-7C8B-4C81-BEE5-698092E5372B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF02CFFC-F26D-495E-BD82-DF734D544CAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="更新履歴" sheetId="2" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="188">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="189">
   <si>
     <t>更新履歴</t>
   </si>
@@ -1530,6 +1530,28 @@
     </rPh>
     <rPh sb="11" eb="13">
       <t>テンメツ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>この３人は主人公と向かい合っている状態の絵にしてください</t>
+    <rPh sb="3" eb="4">
+      <t>ニン</t>
+    </rPh>
+    <rPh sb="5" eb="8">
+      <t>シュジンコウ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ム</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ジョウタイ</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>エ</t>
     </rPh>
     <phoneticPr fontId="5"/>
   </si>
@@ -10235,7 +10257,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AF76"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
@@ -10461,7 +10483,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A039E522-DEBD-4AC9-A47E-E75CA09438E7}">
   <dimension ref="A1:BC160"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="A41" sqref="A41"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.1875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.7"/>
   <cols>
@@ -10690,6 +10714,11 @@
       </c>
       <c r="H59" t="s">
         <v>67</v>
+      </c>
+    </row>
+    <row r="61" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="G61" t="s">
+        <v>188</v>
       </c>
     </row>
     <row r="63" spans="1:18" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.7">
@@ -11020,7 +11049,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1BB2D1D-2503-4BDE-952C-276ADFBA8998}">
   <dimension ref="A1:AC100"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView topLeftCell="A79" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.125" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.7"/>
   <cols>
@@ -11316,7 +11345,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC7169CD-CE69-411E-90BB-1AF3C8F74251}">
   <dimension ref="A1:AD103"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A7" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.125" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.7"/>
   <cols>

--- a/tujigiri/Document/2.辻斬リーマン画面仕様.xlsx
+++ b/tujigiri/Document/2.辻斬リーマン画面仕様.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\新しいフォルダー\tujigiri\Document\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF02CFFC-F26D-495E-BD82-DF734D544CAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F462F518-F2B3-4856-91CD-016F5E4F3A33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/tujigiri/Document/2.辻斬リーマン画面仕様.xlsx
+++ b/tujigiri/Document/2.辻斬リーマン画面仕様.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\新しいフォルダー\tujigiri\Document\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\tt\tujigiri\Document\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F462F518-F2B3-4856-91CD-016F5E4F3A33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37A2E388-B848-41D7-96F3-CA9789B85961}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="更新履歴" sheetId="2" r:id="rId1"/>
@@ -4909,8 +4909,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="3448050" y="2133600"/>
-          <a:ext cx="3433762" cy="2095500"/>
+          <a:off x="3444240" y="2133600"/>
+          <a:ext cx="3393757" cy="2095500"/>
           <a:chOff x="3438525" y="2133600"/>
           <a:chExt cx="3333750" cy="2095500"/>
         </a:xfrm>
@@ -5543,8 +5543,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="8105775" y="2133600"/>
-          <a:ext cx="3438525" cy="2095500"/>
+          <a:off x="8048625" y="2133600"/>
+          <a:ext cx="3396615" cy="2095500"/>
           <a:chOff x="3438525" y="2133600"/>
           <a:chExt cx="3333750" cy="2095500"/>
         </a:xfrm>
@@ -7259,8 +7259,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="3448050" y="2133600"/>
-          <a:ext cx="3433762" cy="2095500"/>
+          <a:off x="3444240" y="2133600"/>
+          <a:ext cx="3393757" cy="2095500"/>
           <a:chOff x="3438525" y="2133600"/>
           <a:chExt cx="3333750" cy="2095500"/>
         </a:xfrm>
@@ -7893,8 +7893,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="8105775" y="2133600"/>
-          <a:ext cx="3438525" cy="2095500"/>
+          <a:off x="8048625" y="2133600"/>
+          <a:ext cx="3396615" cy="2095500"/>
           <a:chOff x="3438525" y="2133600"/>
           <a:chExt cx="3333750" cy="2095500"/>
         </a:xfrm>
@@ -10071,29 +10071,29 @@
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.649999999999999" x14ac:dyDescent="0.7"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" width="14.125" customWidth="1"/>
-    <col min="3" max="3" width="12.125" customWidth="1"/>
-    <col min="4" max="4" width="18.875" customWidth="1"/>
-    <col min="5" max="5" width="13.625" customWidth="1"/>
+    <col min="2" max="2" width="14.09765625" customWidth="1"/>
+    <col min="3" max="3" width="12.09765625" customWidth="1"/>
+    <col min="4" max="4" width="18.8984375" customWidth="1"/>
+    <col min="5" max="5" width="13.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:5" s="1" customFormat="1" x14ac:dyDescent="0.7">
+    <row r="1" spans="2:5" s="1" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="2:5" x14ac:dyDescent="0.7">
+    <row r="2" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B2" s="13"/>
       <c r="C2" s="13"/>
       <c r="D2" s="13"/>
       <c r="E2" s="13"/>
     </row>
-    <row r="3" spans="2:5" x14ac:dyDescent="0.7">
+    <row r="3" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B3" s="14"/>
     </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.7">
+    <row r="5" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B5" s="2" t="s">
         <v>1</v>
       </c>
@@ -10107,7 +10107,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.7">
+    <row r="6" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B6" s="15">
         <v>45946</v>
       </c>
@@ -10121,7 +10121,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.7">
+    <row r="7" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B7" s="15">
         <v>45965</v>
       </c>
@@ -10135,7 +10135,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.7">
+    <row r="8" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B8" s="15">
         <v>45965</v>
       </c>
@@ -10149,7 +10149,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="2:5" x14ac:dyDescent="0.7">
+    <row r="9" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B9" s="38">
         <v>45967</v>
       </c>
@@ -10163,7 +10163,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="10" spans="2:5" x14ac:dyDescent="0.7">
+    <row r="10" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B10" s="40">
         <v>45974</v>
       </c>
@@ -10177,7 +10177,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="11" spans="2:5" x14ac:dyDescent="0.7">
+    <row r="11" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B11" s="40">
         <v>45974</v>
       </c>
@@ -10191,7 +10191,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="12" spans="2:5" x14ac:dyDescent="0.7">
+    <row r="12" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B12" s="40">
         <v>45974</v>
       </c>
@@ -10205,7 +10205,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="13" spans="2:5" x14ac:dyDescent="0.7">
+    <row r="13" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B13" s="15">
         <v>45946</v>
       </c>
@@ -10219,7 +10219,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="14" spans="2:5" x14ac:dyDescent="0.7">
+    <row r="14" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B14" s="15">
         <v>45965</v>
       </c>
@@ -10233,7 +10233,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="15" spans="2:5" x14ac:dyDescent="0.7">
+    <row r="15" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B15" s="15">
         <v>45965</v>
       </c>
@@ -10261,13 +10261,13 @@
       <selection activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.7"/>
+  <sheetFormatPr defaultColWidth="2.09765625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="12.625" customWidth="1"/>
-    <col min="2" max="2" width="10.125" style="6" customWidth="1"/>
+    <col min="1" max="1" width="12.59765625" customWidth="1"/>
+    <col min="2" max="2" width="10.09765625" style="6" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="1" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.85">
+    <row r="1" spans="1:7" s="1" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="4" t="s">
         <v>8</v>
       </c>
@@ -10278,102 +10278,102 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:7" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="3" spans="1:7" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B3" s="8"/>
       <c r="D3" s="7" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="5" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="E5" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:7" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="7" spans="1:7" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B7" s="8"/>
       <c r="D7" s="7" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="9" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="E9" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="11" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="F11" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="12" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="F12" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="13" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="F13" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="14" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="F14" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="15" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="G15" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="17" spans="1:32" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="17" spans="1:32" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B17" s="10"/>
       <c r="C17"/>
       <c r="E17" s="9" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="19" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="19" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="F19" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="20" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="20" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="G20" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="21" spans="1:32" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="21" spans="1:32" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B21" s="10"/>
       <c r="C21"/>
       <c r="E21" s="9" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="23" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="23" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="F23" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="25" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="G25" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="26" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="G26" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="27" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="G27" t="s">
         <v>26</v>
       </c>
       <c r="AF27" s="11"/>
     </row>
-    <row r="28" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="28" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="AF28" s="11"/>
     </row>
-    <row r="29" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="29" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A29" s="14">
         <v>45975</v>
       </c>
@@ -10385,87 +10385,87 @@
       </c>
       <c r="AF29" s="11"/>
     </row>
-    <row r="31" spans="1:32" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="31" spans="1:32" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B31" s="10"/>
       <c r="C31"/>
       <c r="E31" s="9" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="33" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="33" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="F33" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="35" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="35" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="F35" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="36" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="36" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="G36" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="38" spans="2:8" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="38" spans="2:8" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B38" s="10"/>
       <c r="C38"/>
       <c r="E38" s="9" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="40" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="40" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="F40" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="42" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="42" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="G42" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="43" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="43" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="H43" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="45" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="45" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="F45" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="47" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="47" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="G47" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="49" spans="2:5" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="49" spans="2:5" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B49" s="8"/>
       <c r="D49" s="7" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="51" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="51" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="E51" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="52" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="52" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="E52" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="53" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="53" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="E53" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="74" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="74" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="D74" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="76" spans="2:4" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="76" spans="2:4" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B76" s="12"/>
       <c r="D76" s="3" t="s">
         <v>40</v>
@@ -10483,17 +10483,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A039E522-DEBD-4AC9-A47E-E75CA09438E7}">
   <dimension ref="A1:BC160"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="A41" sqref="A41"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.1875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.7"/>
+  <sheetFormatPr defaultColWidth="2.19921875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="11.5" customWidth="1"/>
-    <col min="2" max="2" width="15.125" style="6" customWidth="1"/>
+    <col min="2" max="2" width="15.09765625" style="6" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="1" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.85">
+    <row r="1" spans="1:6" s="1" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="4" t="s">
         <v>101</v>
       </c>
@@ -10504,72 +10502,72 @@
         <v>41</v>
       </c>
     </row>
-    <row r="3" spans="1:6" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="3" spans="1:6" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B3" s="8"/>
       <c r="D3" s="7" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="5" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="E5" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="7" spans="1:6" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="7" spans="1:6" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B7" s="8"/>
       <c r="D7" s="7" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="9" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="E9" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="11" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="F11" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="12" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="F12" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="13" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="F13" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="14" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="F14" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="15" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="F15" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="16" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="F16" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="17" spans="2:4" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="17" spans="2:4" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B17" s="8"/>
       <c r="D17" s="7" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="33" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="33" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B33" s="10"/>
       <c r="C33"/>
       <c r="E33" s="9" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="35" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="35" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A35" s="14">
         <v>45974</v>
       </c>
@@ -10580,12 +10578,12 @@
         <v>151</v>
       </c>
     </row>
-    <row r="36" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="36" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="F36" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="38" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="38" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A38" s="47">
         <v>45974</v>
       </c>
@@ -10596,7 +10594,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="39" spans="1:14" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="39" spans="1:14" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B39" s="20"/>
       <c r="E39"/>
       <c r="F39" t="s">
@@ -10604,7 +10602,7 @@
       </c>
       <c r="G39"/>
     </row>
-    <row r="40" spans="1:14" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="40" spans="1:14" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B40" s="20"/>
       <c r="E40"/>
       <c r="F40" t="s">
@@ -10612,7 +10610,7 @@
       </c>
       <c r="G40"/>
     </row>
-    <row r="41" spans="1:14" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="41" spans="1:14" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B41" s="20"/>
       <c r="E41"/>
       <c r="F41"/>
@@ -10620,24 +10618,24 @@
         <v>60</v>
       </c>
     </row>
-    <row r="42" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="42" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B42" s="10"/>
       <c r="C42"/>
       <c r="E42" s="9" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="44" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="44" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="F44" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="45" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="45" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="H45" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="46" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="46" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="G46" t="s">
         <v>53</v>
       </c>
@@ -10648,12 +10646,12 @@
         <v>58</v>
       </c>
     </row>
-    <row r="47" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="47" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="G47" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="48" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="48" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="G48" t="s">
         <v>56</v>
       </c>
@@ -10661,19 +10659,19 @@
         <v>57</v>
       </c>
     </row>
-    <row r="50" spans="1:18" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="50" spans="1:18" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B50" s="17"/>
       <c r="C50" s="19"/>
       <c r="F50" s="18" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="52" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="52" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="G52" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="53" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="53" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="H53" t="s">
         <v>62</v>
       </c>
@@ -10681,7 +10679,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="55" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="55" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A55" s="47">
         <v>45974</v>
       </c>
@@ -10692,12 +10690,12 @@
         <v>63</v>
       </c>
     </row>
-    <row r="56" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="56" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="H56" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="58" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="58" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A58" s="47">
         <v>45974</v>
       </c>
@@ -10708,7 +10706,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="59" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="59" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="G59" t="s">
         <v>66</v>
       </c>
@@ -10716,29 +10714,29 @@
         <v>67</v>
       </c>
     </row>
-    <row r="61" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="61" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="G61" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="63" spans="1:18" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="63" spans="1:18" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B63" s="10"/>
       <c r="C63" s="19"/>
       <c r="E63" s="9" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="65" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="65" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="F65" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="67" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="67" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="F67" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="68" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="68" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A68" s="14">
         <v>45967</v>
       </c>
@@ -10749,12 +10747,12 @@
         <v>112</v>
       </c>
     </row>
-    <row r="69" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="69" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="G69" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="70" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="70" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A70" s="14">
         <v>45974</v>
       </c>
@@ -10765,66 +10763,66 @@
         <v>139</v>
       </c>
     </row>
-    <row r="71" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="71" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="G71" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="72" spans="1:8" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="72" spans="1:8" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B72" s="10"/>
       <c r="C72" s="19"/>
       <c r="E72" s="9" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="74" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="74" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="F74" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="76" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="76" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="F76" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="78" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="78" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="G78" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="79" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="79" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="G79" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="80" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="80" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="H80" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="83" spans="1:7" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="83" spans="1:7" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B83" s="10"/>
       <c r="C83"/>
       <c r="E83" s="9" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="85" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="85" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="F85" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="86" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="86" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="F86" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="87" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="87" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="F87" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="89" spans="1:7" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="89" spans="1:7" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A89" s="37">
         <v>45974</v>
       </c>
@@ -10836,22 +10834,22 @@
         <v>146</v>
       </c>
     </row>
-    <row r="91" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="91" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="F91" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="93" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="93" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="G93" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="98" spans="2:55" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="98" spans="2:55" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="AD98" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="107" spans="2:55" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="107" spans="2:55" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="AL107" t="s">
         <v>154</v>
       </c>
@@ -10859,81 +10857,81 @@
         <v>155</v>
       </c>
     </row>
-    <row r="108" spans="2:55" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="108" spans="2:55" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="AL108" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="109" spans="2:55" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="109" spans="2:55" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="AL109" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="111" spans="2:55" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="111" spans="2:55" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B111" s="10"/>
       <c r="C111"/>
       <c r="E111" s="9" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="113" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="113" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="F113" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="115" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="115" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="F115" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="116" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="116" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="G116" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="117" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="117" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="G117" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="118" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="118" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="G118" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="120" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="120" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="F120" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="122" spans="2:8" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="122" spans="2:8" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B122" s="17"/>
       <c r="C122" s="19"/>
       <c r="F122" s="21" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="124" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="124" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="G124" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="126" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="126" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="G126" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="128" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="128" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="H128" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="129" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="129" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="H129" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="131" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="131" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A131" s="14">
         <v>45967</v>
       </c>
@@ -10944,28 +10942,28 @@
         <v>124</v>
       </c>
     </row>
-    <row r="132" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="132" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A132" s="14"/>
     </row>
-    <row r="133" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="133" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A133" s="14"/>
     </row>
-    <row r="134" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="134" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A134" s="14"/>
     </row>
-    <row r="136" spans="1:8" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="136" spans="1:8" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B136" s="17"/>
       <c r="C136" s="19"/>
       <c r="F136" s="18" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="138" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="138" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="G138" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="139" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="139" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A139" s="14">
         <v>45967</v>
       </c>
@@ -10976,65 +10974,65 @@
         <v>127</v>
       </c>
     </row>
-    <row r="140" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="140" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="H140" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="142" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="142" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="G142" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="144" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="144" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="H144" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="146" spans="2:8" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="146" spans="2:8" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B146" s="17"/>
       <c r="C146" s="19"/>
       <c r="F146" s="18" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="148" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="148" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="G148" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="150" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="150" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="G150" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="152" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="152" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="H152" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="154" spans="2:8" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="154" spans="2:8" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B154" s="12"/>
       <c r="D154" s="22" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="155" spans="2:8" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="155" spans="2:8" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B155" s="20"/>
     </row>
-    <row r="156" spans="2:8" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="156" spans="2:8" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B156" s="20"/>
     </row>
-    <row r="157" spans="2:8" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="157" spans="2:8" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B157" s="20"/>
     </row>
-    <row r="158" spans="2:8" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="158" spans="2:8" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B158" s="20"/>
     </row>
-    <row r="159" spans="2:8" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="159" spans="2:8" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B159" s="20"/>
     </row>
-    <row r="160" spans="2:8" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="160" spans="2:8" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B160" s="20"/>
     </row>
   </sheetData>
@@ -11051,14 +11049,14 @@
   <sheetViews>
     <sheetView topLeftCell="A79" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.125" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.7"/>
+  <sheetFormatPr defaultColWidth="2.09765625" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="21" style="23" customWidth="1"/>
     <col min="2" max="2" width="20" style="28" customWidth="1"/>
-    <col min="3" max="16384" width="2.125" style="23"/>
+    <col min="3" max="16384" width="2.09765625" style="23"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="24" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="1" spans="1:5" s="24" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A1" s="26" t="s">
         <v>98</v>
       </c>
@@ -11069,181 +11067,181 @@
         <v>100</v>
       </c>
     </row>
-    <row r="3" spans="1:5" s="29" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="3" spans="1:5" s="29" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B3" s="30"/>
       <c r="D3" s="29" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="5" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="E5" s="23" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="7" spans="1:5" s="29" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="7" spans="1:5" s="29" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B7" s="30"/>
       <c r="D7" s="29" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="9" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="E9" s="23" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="12" spans="1:5" s="29" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="12" spans="1:5" s="29" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B12" s="30"/>
       <c r="D12" s="29" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="30" spans="5:6" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="30" spans="5:6" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="E30" s="23" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="32" spans="5:6" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="32" spans="5:6" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="F32" s="23" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="33" spans="2:27" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="33" spans="2:27" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="G33" s="23" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="34" spans="2:27" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="34" spans="2:27" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="F34" s="23" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="35" spans="2:27" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="35" spans="2:27" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="F35" s="23" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="36" spans="2:27" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="36" spans="2:27" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="F36" s="23" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="38" spans="2:27" s="33" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="38" spans="2:27" s="33" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B38" s="34"/>
     </row>
-    <row r="39" spans="2:27" s="32" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="39" spans="2:27" s="32" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B39" s="31"/>
       <c r="C39" s="33"/>
       <c r="E39" s="32" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="41" spans="2:27" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="41" spans="2:27" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="F41" s="23" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="43" spans="2:27" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="43" spans="2:27" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="F43" s="23" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="45" spans="2:27" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="45" spans="2:27" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="G45" s="23" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="46" spans="2:27" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="46" spans="2:27" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="AA46" s="35"/>
     </row>
-    <row r="47" spans="2:27" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="47" spans="2:27" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="AA47" s="35"/>
     </row>
-    <row r="48" spans="2:27" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="48" spans="2:27" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="AA48" s="35"/>
     </row>
-    <row r="49" spans="23:29" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="49" spans="23:29" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="W49" s="23" t="s">
         <v>173</v>
       </c>
       <c r="AA49" s="35"/>
     </row>
-    <row r="50" spans="23:29" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="50" spans="23:29" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="AA50" s="35"/>
     </row>
-    <row r="51" spans="23:29" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="51" spans="23:29" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="AA51" s="35"/>
     </row>
-    <row r="52" spans="23:29" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="52" spans="23:29" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="AA52" s="35"/>
       <c r="AB52" s="23" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="53" spans="23:29" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="53" spans="23:29" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="AA53" s="35"/>
       <c r="AC53" s="23" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="54" spans="23:29" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="54" spans="23:29" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="AA54" s="35"/>
     </row>
-    <row r="55" spans="23:29" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="55" spans="23:29" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="AA55" s="35"/>
     </row>
-    <row r="56" spans="23:29" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="56" spans="23:29" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="AA56" s="35"/>
     </row>
-    <row r="57" spans="23:29" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="57" spans="23:29" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="AA57" s="35"/>
     </row>
-    <row r="58" spans="23:29" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="58" spans="23:29" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="AA58" s="35"/>
     </row>
-    <row r="59" spans="23:29" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="59" spans="23:29" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="AA59" s="35"/>
     </row>
-    <row r="60" spans="23:29" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="60" spans="23:29" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="AA60" s="35"/>
     </row>
-    <row r="61" spans="23:29" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="61" spans="23:29" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="AA61" s="35"/>
     </row>
-    <row r="62" spans="23:29" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="62" spans="23:29" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="AA62" s="35"/>
     </row>
-    <row r="63" spans="23:29" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="63" spans="23:29" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="AA63" s="35"/>
     </row>
-    <row r="64" spans="23:29" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="64" spans="23:29" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="AA64" s="35"/>
     </row>
-    <row r="65" spans="1:15" s="33" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="65" spans="1:15" s="33" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B65" s="34"/>
     </row>
-    <row r="67" spans="1:15" s="32" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="67" spans="1:15" s="32" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B67" s="31"/>
       <c r="C67" s="33"/>
       <c r="E67" s="32" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="69" spans="1:15" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="69" spans="1:15" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="F69" s="23" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="71" spans="1:15" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="71" spans="1:15" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="G71" s="23" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="72" spans="1:15" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="72" spans="1:15" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="G72" s="23" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="74" spans="1:15" s="33" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="74" spans="1:15" s="33" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A74" s="47">
         <v>45974</v>
       </c>
@@ -11254,40 +11252,40 @@
         <v>140</v>
       </c>
     </row>
-    <row r="76" spans="1:15" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="76" spans="1:15" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="O76" s="23" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="77" spans="1:15" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="77" spans="1:15" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="O77" s="23" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="84" spans="1:11" s="33" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="84" spans="1:11" s="33" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B84" s="34"/>
       <c r="E84" s="33" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="85" spans="1:11" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="85" spans="1:11" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="F85" s="23" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="88" spans="1:11" s="32" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="88" spans="1:11" s="32" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B88" s="31"/>
       <c r="C88" s="33"/>
       <c r="E88" s="32" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="90" spans="1:11" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="90" spans="1:11" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="E90" s="23" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="92" spans="1:11" s="32" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="92" spans="1:11" s="32" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A92" s="46">
         <v>45974</v>
       </c>
@@ -11299,12 +11297,12 @@
         <v>159</v>
       </c>
     </row>
-    <row r="94" spans="1:11" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="94" spans="1:11" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="E94" s="23" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="96" spans="1:11" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="96" spans="1:11" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="E96" s="23" t="s">
         <v>161</v>
       </c>
@@ -11315,7 +11313,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="98" spans="2:11" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="98" spans="2:11" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="E98" s="23" t="s">
         <v>163</v>
       </c>
@@ -11326,7 +11324,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="100" spans="2:11" s="24" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="100" spans="2:11" s="24" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B100" s="43"/>
       <c r="E100" s="44" t="s">
         <v>97</v>
@@ -11347,14 +11345,14 @@
   <sheetViews>
     <sheetView topLeftCell="A7" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.125" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.7"/>
+  <sheetFormatPr defaultColWidth="2.09765625" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="21" style="23" customWidth="1"/>
     <col min="2" max="2" width="20" style="28" customWidth="1"/>
-    <col min="3" max="16384" width="2.125" style="23"/>
+    <col min="3" max="16384" width="2.09765625" style="23"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="24" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="1" spans="1:5" s="24" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A1" s="26" t="s">
         <v>98</v>
       </c>
@@ -11365,186 +11363,186 @@
         <v>170</v>
       </c>
     </row>
-    <row r="3" spans="1:5" s="29" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="3" spans="1:5" s="29" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B3" s="30"/>
       <c r="D3" s="29" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="5" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="E5" s="23" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="7" spans="1:5" s="29" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="7" spans="1:5" s="29" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B7" s="30"/>
       <c r="D7" s="29" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="9" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="E9" s="23" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="12" spans="1:5" s="29" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="12" spans="1:5" s="29" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B12" s="30"/>
       <c r="D12" s="29" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="30" spans="5:6" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="30" spans="5:6" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="E30" s="23" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="32" spans="5:6" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="32" spans="5:6" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="F32" s="23" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="33" spans="2:27" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="33" spans="2:27" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="G33" s="23" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="34" spans="2:27" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="34" spans="2:27" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="F34" s="23" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="35" spans="2:27" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="35" spans="2:27" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="F35" s="23" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="36" spans="2:27" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="36" spans="2:27" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="F36" s="23" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="38" spans="2:27" s="33" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="38" spans="2:27" s="33" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B38" s="34"/>
     </row>
-    <row r="39" spans="2:27" s="32" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="39" spans="2:27" s="32" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B39" s="31"/>
       <c r="C39" s="33"/>
       <c r="E39" s="32" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="41" spans="2:27" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="41" spans="2:27" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="F41" s="23" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="43" spans="2:27" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="43" spans="2:27" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="F43" s="23" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="45" spans="2:27" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="45" spans="2:27" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="G45" s="23" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="46" spans="2:27" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="46" spans="2:27" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="AA46" s="35"/>
     </row>
-    <row r="47" spans="2:27" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="47" spans="2:27" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="AA47" s="35"/>
     </row>
-    <row r="48" spans="2:27" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="48" spans="2:27" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="AA48" s="35"/>
     </row>
-    <row r="49" spans="24:29" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="49" spans="24:29" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="X49" s="23" t="s">
         <v>176</v>
       </c>
       <c r="AA49" s="35"/>
     </row>
-    <row r="50" spans="24:29" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="50" spans="24:29" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="AA50" s="35"/>
     </row>
-    <row r="51" spans="24:29" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="51" spans="24:29" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="AA51" s="35"/>
     </row>
-    <row r="52" spans="24:29" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="52" spans="24:29" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="AA52" s="35"/>
       <c r="AB52" s="23" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="53" spans="24:29" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="53" spans="24:29" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="AA53" s="35"/>
       <c r="AC53" s="23" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="54" spans="24:29" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="54" spans="24:29" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="AA54" s="35"/>
     </row>
-    <row r="55" spans="24:29" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="55" spans="24:29" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="AA55" s="35"/>
     </row>
-    <row r="56" spans="24:29" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="56" spans="24:29" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="AA56" s="35"/>
     </row>
-    <row r="57" spans="24:29" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="57" spans="24:29" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="AA57" s="35"/>
     </row>
-    <row r="58" spans="24:29" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="58" spans="24:29" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="AA58" s="35"/>
     </row>
-    <row r="59" spans="24:29" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="59" spans="24:29" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="AA59" s="35"/>
     </row>
-    <row r="60" spans="24:29" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="60" spans="24:29" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="AA60" s="35"/>
     </row>
-    <row r="61" spans="24:29" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="61" spans="24:29" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="AA61" s="35"/>
     </row>
-    <row r="62" spans="24:29" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="62" spans="24:29" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="AA62" s="35"/>
     </row>
-    <row r="63" spans="24:29" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="63" spans="24:29" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="AA63" s="35"/>
     </row>
-    <row r="64" spans="24:29" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="64" spans="24:29" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="AA64" s="35"/>
     </row>
-    <row r="65" spans="1:30" s="33" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="65" spans="1:30" s="33" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B65" s="34"/>
     </row>
-    <row r="67" spans="1:30" s="32" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="67" spans="1:30" s="32" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B67" s="31"/>
       <c r="C67" s="33"/>
       <c r="E67" s="32" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="69" spans="1:30" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="69" spans="1:30" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="F69" s="23" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="71" spans="1:30" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="71" spans="1:30" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="G71" s="23" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="72" spans="1:30" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="72" spans="1:30" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="G72" s="23" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="73" spans="1:30" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="73" spans="1:30" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="AD73" s="23" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="74" spans="1:30" s="33" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="74" spans="1:30" s="33" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A74" s="47">
         <v>45974</v>
       </c>
@@ -11555,17 +11553,17 @@
         <v>140</v>
       </c>
     </row>
-    <row r="76" spans="1:30" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="76" spans="1:30" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="O76" s="23" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="77" spans="1:30" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="77" spans="1:30" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="O77" s="23" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="84" spans="1:6" s="33" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="84" spans="1:6" s="33" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A84" s="47">
         <v>45974</v>
       </c>
@@ -11576,36 +11574,36 @@
         <v>142</v>
       </c>
     </row>
-    <row r="85" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="85" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="F85" s="23" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="91" spans="1:6" s="32" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="91" spans="1:6" s="32" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B91" s="31"/>
       <c r="C91" s="33"/>
       <c r="E91" s="32" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="93" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="93" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="E93" s="23" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="95" spans="1:6" s="32" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="95" spans="1:6" s="32" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B95" s="31"/>
       <c r="C95" s="33"/>
       <c r="E95" s="32" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="97" spans="2:11" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="97" spans="2:11" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="E97" s="23" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="99" spans="2:11" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="99" spans="2:11" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="E99" s="23" t="s">
         <v>161</v>
       </c>
@@ -11616,7 +11614,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="101" spans="2:11" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="101" spans="2:11" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="E101" s="23" t="s">
         <v>162</v>
       </c>
@@ -11627,7 +11625,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="103" spans="2:11" s="24" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="103" spans="2:11" s="24" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B103" s="43"/>
       <c r="E103" s="44" t="s">
         <v>97</v>

--- a/tujigiri/Document/2.辻斬リーマン画面仕様.xlsx
+++ b/tujigiri/Document/2.辻斬リーマン画面仕様.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\tt\tujigiri\Document\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\新しいフォルダー\tujigiri\Document\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37A2E388-B848-41D7-96F3-CA9789B85961}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2201210-B166-468A-B805-4AD41AFB0413}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="更新履歴" sheetId="2" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="189">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="193">
   <si>
     <t>更新履歴</t>
   </si>
@@ -1553,6 +1553,52 @@
     <rPh sb="20" eb="21">
       <t>エ</t>
     </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>全クリ時</t>
+    <rPh sb="0" eb="1">
+      <t>ゼン</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ジ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>３つ目のハンコが押された３秒後に追加で表示する</t>
+    <rPh sb="2" eb="3">
+      <t>メ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>ビョウ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>ゴ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ツイカ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>全クリ仕様</t>
+    <rPh sb="0" eb="1">
+      <t>ゼン</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>シヨウ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>田中</t>
     <phoneticPr fontId="5"/>
   </si>
 </sst>
@@ -1560,7 +1606,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1637,6 +1683,13 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="游ゴシック"/>
       <family val="3"/>
       <charset val="128"/>
@@ -1771,7 +1824,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -1872,6 +1925,24 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -7228,6 +7299,447 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>87</xdr:row>
+      <xdr:rowOff>137160</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>106</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="57" name="図 56">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{54B311B2-A1A2-4163-9C55-86CB31C3EEA9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3436620" y="13548360"/>
+          <a:ext cx="1844040" cy="2766060"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>101439</xdr:colOff>
+      <xdr:row>92</xdr:row>
+      <xdr:rowOff>148683</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>41993</xdr:colOff>
+      <xdr:row>97</xdr:row>
+      <xdr:rowOff>81445</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="13" name="テキスト ボックス 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{36631A76-0A56-46DC-B9CE-55C598BFDCF3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="20657482">
+          <a:off x="3545679" y="14321883"/>
+          <a:ext cx="1700774" cy="694762"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FF0000"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2800" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>退職成功</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>88</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>83820</xdr:colOff>
+      <xdr:row>106</xdr:row>
+      <xdr:rowOff>22860</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="58" name="図 57">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{33FEEC54-3715-4289-9ECA-BE1F0C2EC7C1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6324600" y="13563600"/>
+          <a:ext cx="1844040" cy="2766060"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>109059</xdr:colOff>
+      <xdr:row>93</xdr:row>
+      <xdr:rowOff>11523</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>49613</xdr:colOff>
+      <xdr:row>97</xdr:row>
+      <xdr:rowOff>96685</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="59" name="テキスト ボックス 58">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DEEF55A7-C8A9-4253-A578-E104EB74CA07}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="20657482">
+          <a:off x="6433659" y="14337123"/>
+          <a:ext cx="1700774" cy="694762"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FF0000"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2800" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>退職成功</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>68580</xdr:colOff>
+      <xdr:row>91</xdr:row>
+      <xdr:rowOff>60960</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>98</xdr:row>
+      <xdr:rowOff>144780</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="15" name="正方形/長方形 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{18367DA1-CEA6-4FB0-9024-2DFBEAD9E48A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6233160" y="14081760"/>
+          <a:ext cx="2004060" cy="1150620"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>38</xdr:col>
+      <xdr:colOff>137160</xdr:colOff>
+      <xdr:row>94</xdr:row>
+      <xdr:rowOff>22860</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>42</xdr:col>
+      <xdr:colOff>144780</xdr:colOff>
+      <xdr:row>96</xdr:row>
+      <xdr:rowOff>91440</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="16" name="テキスト ボックス 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B01B8F70-8C07-4B25-B3F7-EDE3FDAAE244}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9022080" y="14500860"/>
+          <a:ext cx="647700" cy="373380"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="19050" cmpd="sng">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>表示物</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>95</xdr:row>
+      <xdr:rowOff>26670</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>38</xdr:col>
+      <xdr:colOff>137160</xdr:colOff>
+      <xdr:row>95</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="18" name="直線矢印コネクタ 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9670B03C-EE0E-446A-82A0-56AF41F4E272}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="16" idx="1"/>
+          <a:endCxn id="15" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="8237220" y="14657070"/>
+          <a:ext cx="784860" cy="30480"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -10065,10 +10577,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53B3EAD6-5458-4246-8577-21AA0B42557E}">
-  <dimension ref="B1:E15"/>
+  <dimension ref="B1:E16"/>
   <sheetViews>
-    <sheetView topLeftCell="B4" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -10234,17 +10746,31 @@
       </c>
     </row>
     <row r="15" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B15" s="15">
+      <c r="B15" s="38">
         <v>45965</v>
       </c>
-      <c r="C15" s="16" t="s">
+      <c r="C15" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="D15" s="16" t="s">
+      <c r="D15" s="39" t="s">
         <v>102</v>
       </c>
-      <c r="E15" s="16" t="s">
+      <c r="E15" s="39" t="s">
         <v>185</v>
+      </c>
+    </row>
+    <row r="16" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B16" s="54">
+        <v>45988</v>
+      </c>
+      <c r="C16" s="42" t="s">
+        <v>192</v>
+      </c>
+      <c r="D16" s="53" t="s">
+        <v>191</v>
+      </c>
+      <c r="E16" s="42" t="s">
+        <v>153</v>
       </c>
     </row>
   </sheetData>
@@ -10257,9 +10783,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AF76"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B33" sqref="B33"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.09765625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.45"/>
   <cols>
@@ -10483,7 +11007,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A039E522-DEBD-4AC9-A47E-E75CA09438E7}">
   <dimension ref="A1:BC160"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.19921875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.45"/>
   <cols>
@@ -11045,9 +11569,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1BB2D1D-2503-4BDE-952C-276ADFBA8998}">
-  <dimension ref="A1:AC100"/>
+  <dimension ref="A1:AC125"/>
   <sheetViews>
-    <sheetView topLeftCell="A79" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A71" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B87" sqref="B87"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.09765625" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.45"/>
   <cols>
@@ -11262,74 +11788,91 @@
         <v>158</v>
       </c>
     </row>
-    <row r="84" spans="1:11" s="33" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="84" spans="1:6" s="33" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B84" s="34"/>
       <c r="E84" s="33" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="85" spans="1:11" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="85" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="F85" s="23" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="88" spans="1:11" s="32" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B88" s="31"/>
-      <c r="C88" s="33"/>
-      <c r="E88" s="32" t="s">
+    <row r="87" spans="1:6" s="49" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A87" s="46">
+        <v>45988</v>
+      </c>
+      <c r="B87" s="52" t="s">
+        <v>191</v>
+      </c>
+      <c r="C87" s="50"/>
+      <c r="E87" s="51" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="109" spans="5:5" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="E109" s="23" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="113" spans="1:11" s="32" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B113" s="31"/>
+      <c r="C113" s="33"/>
+      <c r="E113" s="32" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="90" spans="1:11" ht="12" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="E90" s="23" t="s">
+    <row r="115" spans="1:11" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="E115" s="23" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="92" spans="1:11" s="32" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A92" s="46">
+    <row r="117" spans="1:11" s="32" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A117" s="46">
         <v>45974</v>
       </c>
-      <c r="B92" s="31" t="s">
+      <c r="B117" s="31" t="s">
         <v>174</v>
       </c>
-      <c r="C92" s="33"/>
-      <c r="E92" s="32" t="s">
+      <c r="C117" s="33"/>
+      <c r="E117" s="32" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="94" spans="1:11" ht="12" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="E94" s="23" t="s">
+    <row r="119" spans="1:11" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="E119" s="23" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="96" spans="1:11" ht="12" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="E96" s="23" t="s">
+    <row r="121" spans="1:11" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="E121" s="23" t="s">
         <v>161</v>
       </c>
-      <c r="I96" s="23" t="s">
+      <c r="I121" s="23" t="s">
         <v>164</v>
       </c>
-      <c r="K96" s="23" t="s">
+      <c r="K121" s="23" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="98" spans="2:11" ht="12" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="E98" s="23" t="s">
+    <row r="123" spans="1:11" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="E123" s="23" t="s">
         <v>163</v>
       </c>
-      <c r="I98" s="23" t="s">
+      <c r="I123" s="23" t="s">
         <v>164</v>
       </c>
-      <c r="K98" s="23" t="s">
+      <c r="K123" s="23" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="100" spans="2:11" s="24" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B100" s="43"/>
-      <c r="E100" s="44" t="s">
+    <row r="125" spans="1:11" s="24" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B125" s="43"/>
+      <c r="E125" s="44" t="s">
         <v>97</v>
       </c>
-      <c r="F100" s="45"/>
+      <c r="F125" s="45"/>
     </row>
   </sheetData>
   <phoneticPr fontId="5"/>

--- a/tujigiri/Document/2.辻斬リーマン画面仕様.xlsx
+++ b/tujigiri/Document/2.辻斬リーマン画面仕様.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\新しいフォルダー\tujigiri\Document\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2201210-B166-468A-B805-4AD41AFB0413}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED2447A5-1E6B-4877-8039-EFC675B4D784}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="更新履歴" sheetId="2" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="193">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="195">
   <si>
     <t>更新履歴</t>
   </si>
@@ -1171,25 +1171,6 @@
     <phoneticPr fontId="5"/>
   </si>
   <si>
-    <t>勝敗に応じて表示する絵を変えます</t>
-    <rPh sb="0" eb="2">
-      <t>ショウハイ</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>オウ</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>ヒョウジ</t>
-    </rPh>
-    <rPh sb="10" eb="11">
-      <t>エ</t>
-    </rPh>
-    <rPh sb="12" eb="13">
-      <t>カ</t>
-    </rPh>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
     <t>追加仕様</t>
     <rPh sb="0" eb="2">
       <t>ツイカ</t>
@@ -1599,6 +1580,87 @@
   </si>
   <si>
     <t>田中</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>各敵は勝利時と敗北時で入れ替わり後の絵が変化します</t>
+    <rPh sb="0" eb="1">
+      <t>カク</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>テキ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ショウリ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ジ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ハイボク</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ジ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>イ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>ゴ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>エ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>ヘンカ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>勝敗に応じて入れ替わり後に表示する絵を変えます</t>
+    <rPh sb="0" eb="2">
+      <t>ショウハイ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>オウ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>イ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>ゴ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>エ</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>カ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>琉星差分の絵よろしく</t>
+    <rPh sb="0" eb="1">
+      <t>リュウ</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>セイ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>サブン</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>エ</t>
+    </rPh>
     <phoneticPr fontId="5"/>
   </si>
 </sst>
@@ -1824,7 +1886,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -1933,6 +1995,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3129,14 +3194,14 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>123825</xdr:colOff>
-      <xdr:row>45</xdr:row>
+      <xdr:row>47</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>85725</xdr:colOff>
-      <xdr:row>48</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
+      <xdr:colOff>83820</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>45720</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3151,8 +3216,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2707005" y="4886325"/>
-          <a:ext cx="129540" cy="628650"/>
+          <a:off x="3324225" y="9077325"/>
+          <a:ext cx="127635" cy="607695"/>
         </a:xfrm>
         <a:prstGeom prst="downArrow">
           <a:avLst/>
@@ -4210,13 +4275,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>45720</xdr:colOff>
-      <xdr:row>67</xdr:row>
+      <xdr:row>72</xdr:row>
       <xdr:rowOff>60960</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>27</xdr:col>
       <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>67</xdr:row>
+      <xdr:row>72</xdr:row>
       <xdr:rowOff>68580</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -4260,13 +4325,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>94</xdr:row>
+      <xdr:row>99</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>26</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>105</xdr:row>
+      <xdr:row>110</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4328,13 +4393,13 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>4764</xdr:colOff>
-      <xdr:row>101</xdr:row>
+      <xdr:row>106</xdr:row>
       <xdr:rowOff>61913</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>104</xdr:row>
+      <xdr:row>109</xdr:row>
       <xdr:rowOff>61913</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4391,13 +4456,13 @@
     <xdr:from>
       <xdr:col>19</xdr:col>
       <xdr:colOff>166687</xdr:colOff>
-      <xdr:row>101</xdr:row>
+      <xdr:row>106</xdr:row>
       <xdr:rowOff>61913</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>23</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>104</xdr:row>
+      <xdr:row>109</xdr:row>
       <xdr:rowOff>61913</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4454,13 +4519,13 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>99</xdr:row>
+      <xdr:row>104</xdr:row>
       <xdr:rowOff>61913</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>101</xdr:row>
+      <xdr:row>106</xdr:row>
       <xdr:rowOff>61913</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4517,13 +4582,13 @@
     <xdr:from>
       <xdr:col>19</xdr:col>
       <xdr:colOff>166687</xdr:colOff>
-      <xdr:row>99</xdr:row>
+      <xdr:row>104</xdr:row>
       <xdr:rowOff>61913</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>23</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>101</xdr:row>
+      <xdr:row>106</xdr:row>
       <xdr:rowOff>61913</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4580,13 +4645,13 @@
     <xdr:from>
       <xdr:col>28</xdr:col>
       <xdr:colOff>137160</xdr:colOff>
-      <xdr:row>99</xdr:row>
+      <xdr:row>104</xdr:row>
       <xdr:rowOff>7620</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>35</xdr:col>
       <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>99</xdr:row>
+      <xdr:row>104</xdr:row>
       <xdr:rowOff>15240</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -4633,13 +4698,13 @@
     <xdr:from>
       <xdr:col>37</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>94</xdr:row>
+      <xdr:row>99</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>57</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>105</xdr:row>
+      <xdr:row>110</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4701,13 +4766,13 @@
     <xdr:from>
       <xdr:col>51</xdr:col>
       <xdr:colOff>12384</xdr:colOff>
-      <xdr:row>101</xdr:row>
+      <xdr:row>106</xdr:row>
       <xdr:rowOff>77153</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>54</xdr:col>
       <xdr:colOff>7620</xdr:colOff>
-      <xdr:row>104</xdr:row>
+      <xdr:row>109</xdr:row>
       <xdr:rowOff>77153</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4764,13 +4829,13 @@
     <xdr:from>
       <xdr:col>51</xdr:col>
       <xdr:colOff>7620</xdr:colOff>
-      <xdr:row>99</xdr:row>
+      <xdr:row>104</xdr:row>
       <xdr:rowOff>77153</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>54</xdr:col>
       <xdr:colOff>7620</xdr:colOff>
-      <xdr:row>101</xdr:row>
+      <xdr:row>106</xdr:row>
       <xdr:rowOff>77153</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4827,13 +4892,13 @@
     <xdr:from>
       <xdr:col>40</xdr:col>
       <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>101</xdr:row>
+      <xdr:row>106</xdr:row>
       <xdr:rowOff>68580</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>43</xdr:col>
       <xdr:colOff>39053</xdr:colOff>
-      <xdr:row>104</xdr:row>
+      <xdr:row>109</xdr:row>
       <xdr:rowOff>68580</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4890,13 +4955,13 @@
     <xdr:from>
       <xdr:col>40</xdr:col>
       <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>99</xdr:row>
+      <xdr:row>104</xdr:row>
       <xdr:rowOff>68580</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>43</xdr:col>
       <xdr:colOff>39053</xdr:colOff>
-      <xdr:row>101</xdr:row>
+      <xdr:row>106</xdr:row>
       <xdr:rowOff>68580</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -7352,15 +7417,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>101439</xdr:colOff>
+      <xdr:colOff>70959</xdr:colOff>
       <xdr:row>92</xdr:row>
-      <xdr:rowOff>148683</xdr:rowOff>
+      <xdr:rowOff>95343</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>41993</xdr:colOff>
+      <xdr:colOff>11513</xdr:colOff>
       <xdr:row>97</xdr:row>
-      <xdr:rowOff>81445</xdr:rowOff>
+      <xdr:rowOff>28105</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -7375,7 +7440,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm rot="20657482">
-          <a:off x="3545679" y="14321883"/>
+          <a:off x="3515199" y="14268543"/>
           <a:ext cx="1700774" cy="694762"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -10683,10 +10748,10 @@
         <v>5</v>
       </c>
       <c r="D10" s="42" t="s">
+        <v>167</v>
+      </c>
+      <c r="E10" s="42" t="s">
         <v>168</v>
-      </c>
-      <c r="E10" s="42" t="s">
-        <v>169</v>
       </c>
     </row>
     <row r="11" spans="2:5" x14ac:dyDescent="0.45">
@@ -10697,7 +10762,7 @@
         <v>5</v>
       </c>
       <c r="D11" s="42" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E11" s="42" t="s">
         <v>149</v>
@@ -10711,10 +10776,10 @@
         <v>5</v>
       </c>
       <c r="D12" s="42" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E12" s="42" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="13" spans="2:5" x14ac:dyDescent="0.45">
@@ -10728,7 +10793,7 @@
         <v>6</v>
       </c>
       <c r="E13" s="48" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="14" spans="2:5" x14ac:dyDescent="0.45">
@@ -10742,7 +10807,7 @@
         <v>41</v>
       </c>
       <c r="E14" s="16" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="15" spans="2:5" x14ac:dyDescent="0.45">
@@ -10756,21 +10821,21 @@
         <v>102</v>
       </c>
       <c r="E15" s="39" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="16" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B16" s="54">
+      <c r="B16" s="55">
         <v>45988</v>
       </c>
       <c r="C16" s="42" t="s">
-        <v>192</v>
-      </c>
-      <c r="D16" s="53" t="s">
         <v>191</v>
       </c>
+      <c r="D16" s="54" t="s">
+        <v>190</v>
+      </c>
       <c r="E16" s="42" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
   </sheetData>
@@ -10783,7 +10848,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AF76"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A71" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.09765625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.45"/>
   <cols>
@@ -10905,7 +10970,7 @@
         <v>149</v>
       </c>
       <c r="G29" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="AF29" s="11"/>
     </row>
@@ -11005,14 +11070,14 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A039E522-DEBD-4AC9-A47E-E75CA09438E7}">
-  <dimension ref="A1:BC160"/>
+  <dimension ref="A1:BC165"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.19921875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="11.5" customWidth="1"/>
-    <col min="2" max="2" width="15.09765625" style="6" customWidth="1"/>
+    <col min="2" max="2" width="18.5" style="6" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" s="1" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.55000000000000004">
@@ -11096,7 +11161,7 @@
         <v>45974</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E35" t="s">
         <v>151</v>
@@ -11104,7 +11169,7 @@
     </row>
     <row r="36" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="F36" t="s">
-        <v>152</v>
+        <v>193</v>
       </c>
     </row>
     <row r="38" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.45">
@@ -11112,7 +11177,7 @@
         <v>45974</v>
       </c>
       <c r="B38" s="34" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E38" t="s">
         <v>59</v>
@@ -11142,422 +11207,449 @@
         <v>60</v>
       </c>
     </row>
-    <row r="42" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B42" s="10"/>
-      <c r="C42"/>
-      <c r="E42" s="9" t="s">
+    <row r="42" spans="1:14" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B42" s="20"/>
+      <c r="E42"/>
+      <c r="F42"/>
+      <c r="G42"/>
+    </row>
+    <row r="43" spans="1:14" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B43" s="20"/>
+      <c r="E43"/>
+      <c r="F43"/>
+    </row>
+    <row r="44" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B44" s="10"/>
+      <c r="C44"/>
+      <c r="E44" s="9" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="44" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="F44" t="s">
+    <row r="46" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="F46" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="45" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="H45" t="s">
+    <row r="47" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="H47" t="s">
         <v>69</v>
-      </c>
-    </row>
-    <row r="46" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="G46" t="s">
-        <v>53</v>
-      </c>
-      <c r="L46" t="s">
-        <v>54</v>
-      </c>
-      <c r="N46" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="47" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="G47" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="48" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="G48" t="s">
+        <v>53</v>
+      </c>
+      <c r="L48" t="s">
+        <v>54</v>
+      </c>
+      <c r="N48" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="49" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="G49" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="50" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="G50" t="s">
         <v>56</v>
       </c>
-      <c r="L48" t="s">
+      <c r="L50" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="50" spans="1:18" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B50" s="17"/>
-      <c r="C50" s="19"/>
-      <c r="F50" s="18" t="s">
+    <row r="52" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A52" s="14">
+        <v>45988</v>
+      </c>
+      <c r="B52" s="6" t="s">
+        <v>173</v>
+      </c>
+      <c r="G52" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="53" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B53" s="6" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="55" spans="1:18" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B55" s="17"/>
+      <c r="C55" s="19"/>
+      <c r="F55" s="18" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="52" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="G52" t="s">
+    <row r="57" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="G57" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="53" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="H53" t="s">
+    <row r="58" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="H58" t="s">
         <v>62</v>
       </c>
-      <c r="R53" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="55" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A55" s="47">
+      <c r="R58" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="60" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A60" s="47">
         <v>45974</v>
       </c>
-      <c r="B55" s="34" t="s">
-        <v>180</v>
-      </c>
-      <c r="G55" t="s">
+      <c r="B60" s="34" t="s">
+        <v>179</v>
+      </c>
+      <c r="G60" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="56" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="H56" t="s">
+    <row r="61" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="H61" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="58" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A58" s="47">
+    <row r="63" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A63" s="47">
         <v>45974</v>
       </c>
-      <c r="B58" s="34" t="s">
-        <v>180</v>
-      </c>
-      <c r="G58" t="s">
+      <c r="B63" s="34" t="s">
+        <v>179</v>
+      </c>
+      <c r="G63" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="59" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="G59" t="s">
+    <row r="64" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="G64" t="s">
         <v>66</v>
       </c>
-      <c r="H59" t="s">
+      <c r="H64" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="61" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="G61" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="63" spans="1:18" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B63" s="10"/>
-      <c r="C63" s="19"/>
-      <c r="E63" s="9" t="s">
+    <row r="66" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="G66" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B68" s="10"/>
+      <c r="C68" s="19"/>
+      <c r="E68" s="9" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="65" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="F65" t="s">
+    <row r="70" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="F70" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="67" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="F67" t="s">
+    <row r="72" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="F72" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="68" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A68" s="14">
+    <row r="73" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A73" s="14">
         <v>45967</v>
       </c>
-      <c r="B68" s="6" t="s">
+      <c r="B73" s="6" t="s">
         <v>136</v>
       </c>
-      <c r="G68" s="36" t="s">
+      <c r="G73" s="36" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="69" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="G69" t="s">
+    <row r="74" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="G74" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="70" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A70" s="14">
+    <row r="75" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A75" s="14">
         <v>45974</v>
       </c>
-      <c r="B70" s="6" t="s">
-        <v>167</v>
-      </c>
-      <c r="F70" t="s">
+      <c r="B75" s="6" t="s">
+        <v>166</v>
+      </c>
+      <c r="F75" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="71" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="G71" t="s">
+    <row r="76" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="G76" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="72" spans="1:8" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B72" s="10"/>
-      <c r="C72" s="19"/>
-      <c r="E72" s="9" t="s">
+    <row r="77" spans="1:7" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B77" s="10"/>
+      <c r="C77" s="19"/>
+      <c r="E77" s="9" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="74" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="F74" t="s">
+    <row r="79" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="F79" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="76" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="F76" t="s">
+    <row r="81" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="F81" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="78" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="G78" t="s">
+    <row r="83" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="G83" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="79" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="G79" t="s">
+    <row r="84" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="G84" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="80" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="H80" t="s">
+    <row r="85" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="H85" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="83" spans="1:7" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B83" s="10"/>
-      <c r="C83"/>
-      <c r="E83" s="9" t="s">
+    <row r="88" spans="1:8" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B88" s="10"/>
+      <c r="C88"/>
+      <c r="E88" s="9" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="85" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="F85" t="s">
+    <row r="90" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="F90" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="86" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="F86" t="s">
+    <row r="91" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="F91" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="87" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="F87" t="s">
+    <row r="92" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="F92" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="89" spans="1:7" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A89" s="37">
+    <row r="94" spans="1:8" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A94" s="37">
         <v>45974</v>
       </c>
-      <c r="B89" s="17" t="s">
+      <c r="B94" s="17" t="s">
         <v>149</v>
       </c>
-      <c r="C89" s="19"/>
-      <c r="F89" s="18" t="s">
+      <c r="C94" s="19"/>
+      <c r="F94" s="18" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="91" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="F91" t="s">
+    <row r="96" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="F96" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="93" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="G93" t="s">
+    <row r="98" spans="7:55" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="G98" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="98" spans="2:55" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="AD98" t="s">
+    <row r="103" spans="7:55" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="AD103" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="107" spans="2:55" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="AL107" t="s">
+    <row r="112" spans="7:55" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="AL112" t="s">
+        <v>153</v>
+      </c>
+      <c r="BC112" s="11" t="s">
         <v>154</v>
       </c>
-      <c r="BC107" s="11" t="s">
+    </row>
+    <row r="113" spans="2:38" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="AL113" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="108" spans="2:55" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="AL108" t="s">
+    <row r="114" spans="2:38" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="AL114" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="109" spans="2:55" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="AL109" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="111" spans="2:55" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B111" s="10"/>
-      <c r="C111"/>
-      <c r="E111" s="9" t="s">
+    <row r="116" spans="2:38" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B116" s="10"/>
+      <c r="C116"/>
+      <c r="E116" s="9" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="113" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="F113" t="s">
+    <row r="118" spans="2:38" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="F118" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="115" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="F115" t="s">
+    <row r="120" spans="2:38" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="F120" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="116" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="G116" t="s">
+    <row r="121" spans="2:38" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="G121" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="117" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="G117" t="s">
+    <row r="122" spans="2:38" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="G122" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="118" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="G118" t="s">
+    <row r="123" spans="2:38" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="G123" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="120" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="F120" t="s">
+    <row r="125" spans="2:38" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="F125" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="122" spans="2:8" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B122" s="17"/>
-      <c r="C122" s="19"/>
-      <c r="F122" s="21" t="s">
+    <row r="127" spans="2:38" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B127" s="17"/>
+      <c r="C127" s="19"/>
+      <c r="F127" s="21" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="124" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="G124" t="s">
+    <row r="129" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="G129" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="126" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="G126" t="s">
+    <row r="131" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="G131" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="128" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="H128" t="s">
+    <row r="133" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="H133" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="129" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="H129" t="s">
+    <row r="134" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="H134" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="131" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A131" s="14">
+    <row r="136" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A136" s="14">
         <v>45967</v>
       </c>
-      <c r="B131" s="6" t="s">
+      <c r="B136" s="6" t="s">
         <v>123</v>
       </c>
-      <c r="G131" t="s">
+      <c r="G136" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="132" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A132" s="14"/>
-    </row>
-    <row r="133" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A133" s="14"/>
-    </row>
-    <row r="134" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A134" s="14"/>
-    </row>
-    <row r="136" spans="1:8" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B136" s="17"/>
-      <c r="C136" s="19"/>
-      <c r="F136" s="18" t="s">
+    <row r="137" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A137" s="14"/>
+    </row>
+    <row r="138" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A138" s="14"/>
+    </row>
+    <row r="139" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A139" s="14"/>
+    </row>
+    <row r="141" spans="1:8" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B141" s="17"/>
+      <c r="C141" s="19"/>
+      <c r="F141" s="18" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="138" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="G138" t="s">
+    <row r="143" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="G143" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="139" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A139" s="14">
+    <row r="144" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A144" s="14">
         <v>45967</v>
       </c>
-      <c r="B139" s="6" t="s">
+      <c r="B144" s="6" t="s">
         <v>126</v>
       </c>
-      <c r="H139" t="s">
+      <c r="H144" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="140" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="H140" t="s">
+    <row r="145" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="H145" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="142" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="G142" t="s">
+    <row r="147" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="G147" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="144" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="H144" t="s">
+    <row r="149" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="H149" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="146" spans="2:8" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B146" s="17"/>
-      <c r="C146" s="19"/>
-      <c r="F146" s="18" t="s">
+    <row r="151" spans="2:8" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B151" s="17"/>
+      <c r="C151" s="19"/>
+      <c r="F151" s="18" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="148" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="G148" t="s">
+    <row r="153" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="G153" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="150" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="G150" t="s">
+    <row r="155" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="G155" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="152" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="H152" t="s">
+    <row r="157" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="H157" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="154" spans="2:8" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B154" s="12"/>
-      <c r="D154" s="22" t="s">
+    <row r="159" spans="2:8" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B159" s="12"/>
+      <c r="D159" s="22" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="155" spans="2:8" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B155" s="20"/>
-    </row>
-    <row r="156" spans="2:8" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B156" s="20"/>
-    </row>
-    <row r="157" spans="2:8" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B157" s="20"/>
-    </row>
-    <row r="158" spans="2:8" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B158" s="20"/>
-    </row>
-    <row r="159" spans="2:8" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B159" s="20"/>
     </row>
     <row r="160" spans="2:8" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B160" s="20"/>
+    </row>
+    <row r="161" spans="2:2" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B161" s="20"/>
+    </row>
+    <row r="162" spans="2:2" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B162" s="20"/>
+    </row>
+    <row r="163" spans="2:2" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B163" s="20"/>
+    </row>
+    <row r="164" spans="2:2" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B164" s="20"/>
+    </row>
+    <row r="165" spans="2:2" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B165" s="20"/>
     </row>
   </sheetData>
   <phoneticPr fontId="5"/>
@@ -11571,8 +11663,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1BB2D1D-2503-4BDE-952C-276ADFBA8998}">
   <dimension ref="A1:AC125"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A71" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B87" sqref="B87"/>
+    <sheetView topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A95" sqref="A95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.09765625" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.45"/>
@@ -11687,7 +11779,7 @@
     </row>
     <row r="49" spans="23:29" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="W49" s="23" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="AA49" s="35"/>
     </row>
@@ -11772,7 +11864,7 @@
         <v>45974</v>
       </c>
       <c r="B74" s="34" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F74" s="33" t="s">
         <v>140</v>
@@ -11785,7 +11877,7 @@
     </row>
     <row r="77" spans="1:15" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="O77" s="23" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="84" spans="1:6" s="33" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.45">
@@ -11803,17 +11895,20 @@
       <c r="A87" s="46">
         <v>45988</v>
       </c>
-      <c r="B87" s="52" t="s">
-        <v>191</v>
+      <c r="B87" s="53" t="s">
+        <v>190</v>
       </c>
       <c r="C87" s="50"/>
       <c r="E87" s="51" t="s">
-        <v>189</v>
-      </c>
+        <v>188</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A95" s="52"/>
     </row>
     <row r="109" spans="5:5" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="E109" s="23" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="113" spans="1:11" s="32" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.45">
@@ -11833,38 +11928,38 @@
         <v>45974</v>
       </c>
       <c r="B117" s="31" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C117" s="33"/>
       <c r="E117" s="32" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="119" spans="1:11" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="E119" s="23" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="121" spans="1:11" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="E121" s="23" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="I121" s="23" t="s">
+        <v>163</v>
+      </c>
+      <c r="K121" s="23" t="s">
         <v>164</v>
-      </c>
-      <c r="K121" s="23" t="s">
-        <v>165</v>
       </c>
     </row>
     <row r="123" spans="1:11" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="E123" s="23" t="s">
+        <v>162</v>
+      </c>
+      <c r="I123" s="23" t="s">
         <v>163</v>
       </c>
-      <c r="I123" s="23" t="s">
-        <v>164</v>
-      </c>
       <c r="K123" s="23" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="125" spans="1:11" s="24" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.45">
@@ -11903,7 +11998,7 @@
         <v>99</v>
       </c>
       <c r="D1" s="25" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="3" spans="1:5" s="29" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.45">
@@ -11914,7 +12009,7 @@
     </row>
     <row r="5" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="E5" s="23" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="7" spans="1:5" s="29" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.45">
@@ -11925,7 +12020,7 @@
     </row>
     <row r="9" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="E9" s="23" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="12" spans="1:5" s="29" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.45">
@@ -12000,7 +12095,7 @@
     </row>
     <row r="49" spans="24:29" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="X49" s="23" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="AA49" s="35"/>
     </row>
@@ -12067,12 +12162,12 @@
     </row>
     <row r="69" spans="1:30" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="F69" s="23" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="71" spans="1:30" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="G71" s="23" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="72" spans="1:30" ht="12" customHeight="1" x14ac:dyDescent="0.45">
@@ -12082,7 +12177,7 @@
     </row>
     <row r="73" spans="1:30" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="AD73" s="23" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="74" spans="1:30" s="33" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.45">
@@ -12090,7 +12185,7 @@
         <v>45974</v>
       </c>
       <c r="B74" s="34" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F74" s="33" t="s">
         <v>140</v>
@@ -12103,7 +12198,7 @@
     </row>
     <row r="77" spans="1:30" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="O77" s="23" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="84" spans="1:6" s="33" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.45">
@@ -12111,7 +12206,7 @@
         <v>45974</v>
       </c>
       <c r="B84" s="34" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E84" s="33" t="s">
         <v>142</v>
@@ -12119,7 +12214,7 @@
     </row>
     <row r="85" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="F85" s="23" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="91" spans="1:6" s="32" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.45">
@@ -12138,34 +12233,34 @@
       <c r="B95" s="31"/>
       <c r="C95" s="33"/>
       <c r="E95" s="32" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="97" spans="2:11" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="E97" s="23" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="99" spans="2:11" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="E99" s="23" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="I99" s="23" t="s">
+        <v>163</v>
+      </c>
+      <c r="K99" s="23" t="s">
         <v>164</v>
-      </c>
-      <c r="K99" s="23" t="s">
-        <v>165</v>
       </c>
     </row>
     <row r="101" spans="2:11" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="E101" s="23" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="I101" s="23" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="K101" s="23" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="103" spans="2:11" s="24" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.45">

--- a/tujigiri/Document/2.辻斬リーマン画面仕様.xlsx
+++ b/tujigiri/Document/2.辻斬リーマン画面仕様.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\新しいフォルダー\tujigiri\Document\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED2447A5-1E6B-4877-8039-EFC675B4D784}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFEBD8B8-BBC7-4D37-A116-373320616921}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="更新履歴" sheetId="2" r:id="rId1"/>
@@ -11072,7 +11072,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A039E522-DEBD-4AC9-A47E-E75CA09438E7}">
   <dimension ref="A1:BC165"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.19921875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.45"/>
   <cols>
@@ -11663,9 +11663,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1BB2D1D-2503-4BDE-952C-276ADFBA8998}">
   <dimension ref="A1:AC125"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A95" sqref="A95"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.09765625" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.45"/>
   <cols>
